--- a/UK-Sales_Predictive_Model/2017/6. LM with Weather + Lasso/Output_Data/Lasso_Weather_Output_analyzed_2017.xlsx
+++ b/UK-Sales_Predictive_Model/2017/6. LM with Weather + Lasso/Output_Data/Lasso_Weather_Output_analyzed_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="22980" windowHeight="9264"/>
+    <workbookView xWindow="288" yWindow="384" windowWidth="22692" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Lasso_Weather_Output" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,15 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lasso_Weather_Output!$A$3:$J$3</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="50" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="143">
   <si>
     <t>Alpha_0.1</t>
   </si>
@@ -131,40 +131,7 @@
     <t>Holiday_Event_Rememberance Sunday</t>
   </si>
   <si>
-    <t>Holiday_Event_School Hol (All)</t>
-  </si>
-  <si>
-    <t>Holiday_Event_School Hol (Eng / Wales)</t>
-  </si>
-  <si>
-    <t>Holiday_Event_School Hol (Eng /Wales)</t>
-  </si>
-  <si>
-    <t>Holiday_Event_School Hol (Eng, Wales, Scot)</t>
-  </si>
-  <si>
-    <t>Holiday_Event_School Hol (Eng/ Wales &amp; Ni)  Easter Monday (Eng/Wales/Ni, Bhol)</t>
-  </si>
-  <si>
-    <t>Holiday_Event_School Hol (Eng/ Wales &amp; Scot)</t>
-  </si>
-  <si>
-    <t>Holiday_Event_School Hol (Eng/ Wales, Scot &amp; Ni)</t>
-  </si>
-  <si>
-    <t>Holiday_Event_School Hol (Eng/Wales &amp; Ni)</t>
-  </si>
-  <si>
-    <t>Holiday_Event_School Hol (Eng/Wales &amp; Ni) Summer Bank Hol (Eng / Wales)</t>
-  </si>
-  <si>
-    <t>Holiday_Event_School Hol (Eng/Wales, Scot &amp; Ni)</t>
-  </si>
-  <si>
-    <t>Holiday_Event_School Hol (Scot &amp; Ni)</t>
-  </si>
-  <si>
-    <t>Holiday_Event_School Hol (Scot)</t>
+    <t>Holiday_Event_School Hol</t>
   </si>
   <si>
     <t>Holiday_Event_Scottish Christmas Holidays End</t>
@@ -221,28 +188,13 @@
     <t>Promo_Esb3G3 / Secret Sale 342</t>
   </si>
   <si>
-    <t>Promo_Esb3G3 Or H&amp;C B1G150%</t>
-  </si>
-  <si>
-    <t>Promo_Esb3G3 Or Hair B1G150%</t>
-  </si>
-  <si>
-    <t>Promo_Esb3G3 Or Jwly B1G150%</t>
-  </si>
-  <si>
-    <t>Promo_Esb3G3 Or Jwly B1G150% / Secret Sale 342</t>
+    <t>Sales_Promo_545</t>
   </si>
   <si>
     <t>Sales_Promo_345</t>
   </si>
   <si>
-    <t>Sales_Promo_345 / 545</t>
-  </si>
-  <si>
-    <t>Sales_Promo_345 / 545 (Over €5 @ €5)</t>
-  </si>
-  <si>
-    <t>Sales_Promo_545</t>
+    <t>Sales_Promo_545 (Over €5 @ €5)</t>
   </si>
   <si>
     <t>Sales_Promo_75% Off</t>
@@ -458,6 +410,9 @@
     <t>Operating Hours</t>
   </si>
   <si>
+    <t>Base</t>
+  </si>
+  <si>
     <t>Labor</t>
   </si>
   <si>
@@ -467,6 +422,9 @@
     <t>Holiday</t>
   </si>
   <si>
+    <t>Holiday/Seasonality</t>
+  </si>
+  <si>
     <t>ES342</t>
   </si>
   <si>
@@ -479,21 +437,28 @@
     <t>CLX</t>
   </si>
   <si>
-    <t>Base</t>
-  </si>
-  <si>
     <t>Day of Week</t>
   </si>
   <si>
     <t>Seasonality</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of USD Avg. Store Daily Sales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -929,8 +894,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -973,7 +939,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -982,52 +948,62 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2712,6 +2688,1570 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Srini Aripirala" refreshedDate="43160.681765740737" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="117">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A4:J121" sheet="Lasso_Weather_Output"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Alpha_0.1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1804.196518" maxValue="1295.100623"/>
+    </cacheField>
+    <cacheField name="Alpha_1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-611.4073793" maxValue="1084.749053"/>
+    </cacheField>
+    <cacheField name="Alpha_10" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-243.36068589999999" maxValue="846.72665510000002"/>
+    </cacheField>
+    <cacheField name="Features" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="11">
+        <s v="Base"/>
+        <s v="Operating Hours"/>
+        <s v="Labor"/>
+        <s v="Weather"/>
+        <s v="Holiday"/>
+        <s v="ES342"/>
+        <s v="Other Promo"/>
+        <s v="B3G3"/>
+        <s v="CLX"/>
+        <s v="Day of Week"/>
+        <s v="Seasonality"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Waterfall Category" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Non-Categorical Multiplier" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.4695E-2" maxValue="79.625765000000001"/>
+    </cacheField>
+    <cacheField name="Contribution to Sales ($)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1804.196518" maxValue="1295.100623"/>
+    </cacheField>
+    <cacheField name="% to Total Betas" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.52698256047002756" maxValue="0.37828220793344197"/>
+    </cacheField>
+    <cacheField name="USD Avg. Store Daily Sales" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-734.35306321916471" maxValue="527.13831347561597"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="117">
+  <r>
+    <n v="-683.29455829999995"/>
+    <n v="-358.53602460000002"/>
+    <n v="153.2107613"/>
+    <s v="Intercept"/>
+    <x v="0"/>
+    <s v="Base"/>
+    <n v="1"/>
+    <n v="-683.29455829999995"/>
+    <n v="-0.19958153798419564"/>
+    <n v="-278.11795830579865"/>
+  </r>
+  <r>
+    <n v="52.036253709999997"/>
+    <n v="45.401782400000002"/>
+    <n v="9.2361252389999997"/>
+    <s v="Open Hours"/>
+    <x v="1"/>
+    <s v="Base"/>
+    <n v="8.6258610000000004"/>
+    <n v="448.85749146319432"/>
+    <n v="0.13110549088058251"/>
+    <n v="182.69621436264566"/>
+  </r>
+  <r>
+    <n v="45.816331720000001"/>
+    <n v="46.826621729999999"/>
+    <n v="57.090088090000002"/>
+    <s v="Labour Hours"/>
+    <x v="2"/>
+    <s v="Base"/>
+    <n v="21.081174000000001"/>
+    <n v="965.86206103103939"/>
+    <n v="0.28211586537547856"/>
+    <n v="393.12999226468941"/>
+  </r>
+  <r>
+    <n v="5.3449809750000004"/>
+    <n v="3.5958107099999999"/>
+    <n v="0"/>
+    <s v="rain"/>
+    <x v="3"/>
+    <s v="Weather"/>
+    <n v="1"/>
+    <n v="5.3449809750000004"/>
+    <n v="1.56120008644706E-3"/>
+    <n v="2.1755408087088481"/>
+  </r>
+  <r>
+    <n v="-54.275031679999998"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="snow"/>
+    <x v="3"/>
+    <s v="Weather"/>
+    <n v="1"/>
+    <n v="-54.275031679999998"/>
+    <n v="-1.5853037559358744E-2"/>
+    <n v="-22.091294031931621"/>
+  </r>
+  <r>
+    <n v="11.251937180000001"/>
+    <n v="10.16618336"/>
+    <n v="0"/>
+    <s v="meantempi"/>
+    <x v="3"/>
+    <s v="Weather"/>
+    <n v="51.137203"/>
+    <n v="575.39259571690752"/>
+    <n v="0.1680647647532991"/>
+    <n v="234.19916345184825"/>
+  </r>
+  <r>
+    <n v="-9.3129340490000008"/>
+    <n v="-11.33993746"/>
+    <n v="-2.3450716200000001"/>
+    <s v="meandewpti"/>
+    <x v="3"/>
+    <s v="Weather"/>
+    <n v="45.474352000000003"/>
+    <n v="-423.49964109701131"/>
+    <n v="-0.1236987894593868"/>
+    <n v="-172.37493566197381"/>
+  </r>
+  <r>
+    <n v="-1.1953691230000001"/>
+    <n v="-1.574368188"/>
+    <n v="-0.91563770200000005"/>
+    <s v="meanwindspdi"/>
+    <x v="3"/>
+    <s v="Weather"/>
+    <n v="8.5805030000000002"/>
+    <n v="-10.25686834600887"/>
+    <n v="-2.9958991104669297E-3"/>
+    <n v="-4.1748016991391301"/>
+  </r>
+  <r>
+    <n v="4.4423356270000003"/>
+    <n v="4.4243729360000001"/>
+    <n v="0.77820998699999999"/>
+    <s v="humidity"/>
+    <x v="3"/>
+    <s v="Weather"/>
+    <n v="79.625765000000001"/>
+    <n v="353.72437268662969"/>
+    <n v="0.10331833243181905"/>
+    <n v="143.97465798551329"/>
+  </r>
+  <r>
+    <n v="-117.55212229999999"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="precipi"/>
+    <x v="3"/>
+    <s v="Weather"/>
+    <n v="1.4695E-2"/>
+    <n v="-1.7274284371984998"/>
+    <n v="-5.0455959302743967E-4"/>
+    <n v="-0.70310653617424446"/>
+  </r>
+  <r>
+    <n v="-77.897143959999994"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Event__x000d__x000a_World Book Day"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-77.897143959999994"/>
+    <n v="-2.2752752246107118E-2"/>
+    <n v="-31.70608396166423"/>
+  </r>
+  <r>
+    <n v="504.9403959"/>
+    <n v="28.479127030000001"/>
+    <n v="0"/>
+    <s v="Holiday_Event_Bank Holiday (Scot &amp; Ni)"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="504.9403959"/>
+    <n v="0.14748658478240753"/>
+    <n v="205.52335777884636"/>
+  </r>
+  <r>
+    <n v="441.56727660000001"/>
+    <n v="0.42250051599999999"/>
+    <n v="0"/>
+    <s v="Holiday_Event_Black Friday"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="441.56727660000001"/>
+    <n v="0.12897611303473588"/>
+    <n v="179.72891475703102"/>
+  </r>
+  <r>
+    <n v="59.568525379999997"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Event_Bonfire Night"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="59.568525379999997"/>
+    <n v="1.7399198876059587E-2"/>
+    <n v="24.245878233233324"/>
+  </r>
+  <r>
+    <n v="-38.025482029999999"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Event_Boxing Day (Bhol)"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-38.025482029999999"/>
+    <n v="-1.1106753440301464E-2"/>
+    <n v="-15.477321306478546"/>
+  </r>
+  <r>
+    <n v="-964.50673489999997"/>
+    <n v="-506.91436060000001"/>
+    <n v="0"/>
+    <s v="Holiday_Event_Christmas Eve"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-964.50673489999997"/>
+    <n v="-0.28171999207249782"/>
+    <n v="-392.5783406646226"/>
+  </r>
+  <r>
+    <n v="-257.21313070000002"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Event_Comic Relief  "/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-257.21313070000002"/>
+    <n v="-7.5128641946973246E-2"/>
+    <n v="-104.69217102753349"/>
+  </r>
+  <r>
+    <n v="-782.56097250000005"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Event_Easter Sunday"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-782.56097250000005"/>
+    <n v="-0.22857597877925009"/>
+    <n v="-318.52186919648165"/>
+  </r>
+  <r>
+    <n v="39.488981389999999"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Event_England/Wales Christmas Holidays End"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="39.488981389999999"/>
+    <n v="1.1534222749927438E-2"/>
+    <n v="16.073002113592977"/>
+  </r>
+  <r>
+    <n v="-237.68403699999999"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Event_Fathers Day"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-237.68403699999999"/>
+    <n v="-6.9424445259412021E-2"/>
+    <n v="-96.743341929699525"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Event_Good Friday (Bhol)"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="-4.7517473260000003"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Event_Halloween"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-4.7517473260000003"/>
+    <n v="-1.3879241798659136E-3"/>
+    <n v="-1.9340798907869166"/>
+  </r>
+  <r>
+    <n v="436.00576330000001"/>
+    <n v="90.240997870000001"/>
+    <n v="0"/>
+    <s v="Holiday_Event_Maw World Wish Day"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="436.00576330000001"/>
+    <n v="0.12735166664561914"/>
+    <n v="177.46523988168184"/>
+  </r>
+  <r>
+    <n v="847.82395570000006"/>
+    <n v="405.59708280000001"/>
+    <n v="0"/>
+    <s v="Holiday_Event_May Day Bank Holiday"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="847.82395570000006"/>
+    <n v="0.24763845542606977"/>
+    <n v="345.08553404651036"/>
+  </r>
+  <r>
+    <n v="-288.26720499999999"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Event_Mothers Day"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-288.26720499999999"/>
+    <n v="-8.4199136998023144E-2"/>
+    <n v="-117.33195519745311"/>
+  </r>
+  <r>
+    <n v="-1804.196518"/>
+    <n v="-563.41476339999997"/>
+    <n v="0"/>
+    <s v="Holiday_Event_New Years Day"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-1804.196518"/>
+    <n v="-0.52698256047002756"/>
+    <n v="-734.35306321916471"/>
+  </r>
+  <r>
+    <n v="-1082.4861169999999"/>
+    <n v="-611.4073793"/>
+    <n v="0"/>
+    <s v="Holiday_Event_New Years Eve"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-1082.4861169999999"/>
+    <n v="-0.31618024972261799"/>
+    <n v="-440.59889706048591"/>
+  </r>
+  <r>
+    <n v="276.42680919999998"/>
+    <n v="17.15593853"/>
+    <n v="0"/>
+    <s v="Holiday_Event_Ni Christmas Holidays Ends"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="276.42680919999998"/>
+    <n v="8.0740709917929115E-2"/>
+    <n v="112.51261825787405"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <n v="-48.466168570000001"/>
+    <n v="0"/>
+    <s v="Holiday_Event_None"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="-61.347500549999999"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Event_Orangemans Day Bhol  (Ni)"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-61.347500549999999"/>
+    <n v="-1.79188146056911E-2"/>
+    <n v="-24.969965577625558"/>
+  </r>
+  <r>
+    <n v="143.04397710000001"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Event_Rememberance Sunday"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="143.04397710000001"/>
+    <n v="4.1781302956695986E-2"/>
+    <n v="58.222472835100035"/>
+  </r>
+  <r>
+    <n v="157.22571009999999"/>
+    <n v="24.045450890000001"/>
+    <n v="0"/>
+    <s v="Holiday_Event_School Hol"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="157.22571009999999"/>
+    <n v="4.5923604470794278E-2"/>
+    <n v="63.994792516689337"/>
+  </r>
+  <r>
+    <n v="9.5665655849999993"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Event_Scottish Christmas Holidays End"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="9.5665655849999993"/>
+    <n v="2.7942705667541629E-3"/>
+    <n v="3.8938312272209976"/>
+  </r>
+  <r>
+    <n v="-85.435203529999995"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Event_Shrove Tuesday"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-85.435203529999995"/>
+    <n v="-2.495452233796925E-2"/>
+    <n v="-34.774262555698101"/>
+  </r>
+  <r>
+    <n v="28.469730340000002"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Event_Spring Bank Holiday School Hol (Eng / Wales)"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="28.469730340000002"/>
+    <n v="8.3156414729675422E-3"/>
+    <n v="11.587891604722959"/>
+  </r>
+  <r>
+    <n v="296.64551110000002"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Event_St Georges Day (England)"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="296.64551110000002"/>
+    <n v="8.6646332276880053E-2"/>
+    <n v="120.74213512394094"/>
+  </r>
+  <r>
+    <n v="-71.172949160000002"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Event_St Patricks Day (Ni Bhol)"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-71.172949160000002"/>
+    <n v="-2.0788701569004968E-2"/>
+    <n v="-28.969168664578856"/>
+  </r>
+  <r>
+    <n v="280.56459690000003"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Event_Valentines Day"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="280.56459690000003"/>
+    <n v="8.194930440033317E-2"/>
+    <n v="114.1968012402323"/>
+  </r>
+  <r>
+    <n v="127.7332078"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Period_All School Hols"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="127.7332078"/>
+    <n v="3.7309224484100297E-2"/>
+    <n v="51.990607168847284"/>
+  </r>
+  <r>
+    <n v="-1.113836E-2"/>
+    <n v="8.9728877619999992"/>
+    <n v="232.22158780000001"/>
+    <s v="Holiday_Period_Christmas"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-1.113836E-2"/>
+    <n v="-3.2533714668420267E-6"/>
+    <n v="-4.5335908276250298E-3"/>
+  </r>
+  <r>
+    <n v="71.23734365"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Holiday_Period_Easter"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="71.23734365"/>
+    <n v="2.0807510369976374E-2"/>
+    <n v="28.995378830995961"/>
+  </r>
+  <r>
+    <n v="397.17671910000001"/>
+    <n v="201.34350839999999"/>
+    <n v="0"/>
+    <s v="Holiday_Period_Halloween"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="397.17671910000001"/>
+    <n v="0.11601020304729517"/>
+    <n v="161.66084869387979"/>
+  </r>
+  <r>
+    <n v="-155.17546010000001"/>
+    <n v="-184.60747559999999"/>
+    <n v="-198.24778670000001"/>
+    <s v="Holiday_Period_None"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-155.17546010000001"/>
+    <n v="-4.5324752857999147E-2"/>
+    <n v="-63.160289538303104"/>
+  </r>
+  <r>
+    <n v="469.7669745"/>
+    <n v="188.57853890000001"/>
+    <n v="0"/>
+    <s v="Holiday_Period_School Hols"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="469.7669745"/>
+    <n v="0.13721288151065381"/>
+    <n v="191.20689641153285"/>
+  </r>
+  <r>
+    <n v="-189.6033382"/>
+    <n v="-241.70533929999999"/>
+    <n v="-130.5246631"/>
+    <s v="Holiday_Period_Scotland School Hols"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-189.6033382"/>
+    <n v="-5.5380692536233234E-2"/>
+    <n v="-77.173296154066335"/>
+  </r>
+  <r>
+    <n v="-174.86429509999999"/>
+    <n v="-209.8850194"/>
+    <n v="0"/>
+    <s v="Holiday_Period_St Patricks Day"/>
+    <x v="4"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-174.86429509999999"/>
+    <n v="-5.1075607921434035E-2"/>
+    <n v="-71.174137336598605"/>
+  </r>
+  <r>
+    <n v="-177.52879200000001"/>
+    <n v="-241.5853371"/>
+    <n v="-185.42424840000001"/>
+    <s v="Promo_Es342"/>
+    <x v="5"/>
+    <s v="Other Promo"/>
+    <n v="1"/>
+    <n v="-177.52879200000001"/>
+    <n v="-5.1853873140725662E-2"/>
+    <n v="-72.258654151109482"/>
+  </r>
+  <r>
+    <n v="6.65506171"/>
+    <n v="11.36593124"/>
+    <n v="0"/>
+    <s v="Promo_Esb3G2"/>
+    <x v="6"/>
+    <s v="Other Promo"/>
+    <n v="1"/>
+    <n v="6.65506171"/>
+    <n v="1.9438577921154377E-3"/>
+    <n v="2.7087764020676781"/>
+  </r>
+  <r>
+    <n v="-49.483520130000002"/>
+    <n v="-111.675843"/>
+    <n v="0"/>
+    <s v="Promo_Esb3G3"/>
+    <x v="7"/>
+    <s v="B3G3"/>
+    <n v="1"/>
+    <n v="-49.483520130000002"/>
+    <n v="-1.4453498761922317E-2"/>
+    <n v="-20.141029108411519"/>
+  </r>
+  <r>
+    <n v="95.971350189999995"/>
+    <n v="88.192132810000004"/>
+    <n v="65.3409616"/>
+    <s v="Promo_Esb3G3 / Secret Sale 342"/>
+    <x v="7"/>
+    <s v="B3G3"/>
+    <n v="1"/>
+    <n v="95.971350189999995"/>
+    <n v="2.8031995046169284E-2"/>
+    <n v="39.062737506793965"/>
+  </r>
+  <r>
+    <n v="-87.745960789999998"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Sales_Promo_545"/>
+    <x v="8"/>
+    <s v="CLX"/>
+    <n v="1"/>
+    <n v="-87.745960789999998"/>
+    <n v="-2.5629464765443498E-2"/>
+    <n v="-35.714798498045447"/>
+  </r>
+  <r>
+    <n v="94.485597889999994"/>
+    <n v="249.54671830000001"/>
+    <n v="187.41988259999999"/>
+    <s v="Sales_Promo_345"/>
+    <x v="8"/>
+    <s v="CLX"/>
+    <n v="1"/>
+    <n v="94.485597889999994"/>
+    <n v="2.759802593944128E-2"/>
+    <n v="38.457999197078458"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <n v="-11.061968909999999"/>
+    <n v="-14.899071340000001"/>
+    <s v="Sales_Promo_545 (Over €5 @ €5)"/>
+    <x v="8"/>
+    <s v="CLX"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="107.0930159"/>
+    <n v="108.5642035"/>
+    <n v="42.81138618"/>
+    <s v="Sales_Promo_75% Off"/>
+    <x v="8"/>
+    <s v="CLX"/>
+    <n v="1"/>
+    <n v="107.0930159"/>
+    <n v="3.1280490325965353E-2"/>
+    <n v="43.589533341258623"/>
+  </r>
+  <r>
+    <n v="37.356290749999999"/>
+    <n v="31.416637519999998"/>
+    <n v="0"/>
+    <s v="Cluster_0"/>
+    <x v="0"/>
+    <s v="Base"/>
+    <n v="1"/>
+    <n v="37.356290749999999"/>
+    <n v="1.0911291288224184E-2"/>
+    <n v="15.204943734831135"/>
+  </r>
+  <r>
+    <n v="-299.85608400000001"/>
+    <n v="-296.12716440000003"/>
+    <n v="-243.36068589999999"/>
+    <s v="Cluster_1"/>
+    <x v="0"/>
+    <s v="Base"/>
+    <n v="1"/>
+    <n v="-299.85608400000001"/>
+    <n v="-8.7584099260985093E-2"/>
+    <n v="-122.04891851493041"/>
+  </r>
+  <r>
+    <n v="-101.78527699999999"/>
+    <n v="-57.761442580000001"/>
+    <n v="0"/>
+    <s v="Cluster_2"/>
+    <x v="0"/>
+    <s v="Base"/>
+    <n v="1"/>
+    <n v="-101.78527699999999"/>
+    <n v="-2.973016816985732E-2"/>
+    <n v="-41.429150987620517"/>
+  </r>
+  <r>
+    <n v="984.84392209999999"/>
+    <n v="956.4906833"/>
+    <n v="615.24976119999997"/>
+    <s v="Cluster_3"/>
+    <x v="0"/>
+    <s v="Base"/>
+    <n v="1"/>
+    <n v="984.84392209999999"/>
+    <n v="0.28766022246119999"/>
+    <n v="400.85608400831171"/>
+  </r>
+  <r>
+    <n v="-146.09417160000001"/>
+    <n v="-87.621603269999994"/>
+    <n v="-6.7590175910000001"/>
+    <s v="Day_of_Week_0"/>
+    <x v="9"/>
+    <s v="Base"/>
+    <n v="1"/>
+    <n v="-146.09417160000001"/>
+    <n v="-4.2672225476224755E-2"/>
+    <n v="-59.46397821000911"/>
+  </r>
+  <r>
+    <n v="-67.559541580000001"/>
+    <n v="-59.965355819999999"/>
+    <n v="-10.84649821"/>
+    <s v="Day_of_Week_1"/>
+    <x v="9"/>
+    <s v="Base"/>
+    <n v="1"/>
+    <n v="-67.559541580000001"/>
+    <n v="-1.9733271764362032E-2"/>
+    <n v="-27.498421493437075"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Day_of_Week_2"/>
+    <x v="9"/>
+    <s v="Base"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="-0.53123261300000002"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Day_of_Week_3"/>
+    <x v="9"/>
+    <s v="Base"/>
+    <n v="1"/>
+    <n v="-0.53123261300000002"/>
+    <n v="-1.5516620268963589E-4"/>
+    <n v="-0.21622494708665166"/>
+  </r>
+  <r>
+    <n v="192.1693544"/>
+    <n v="174.2779654"/>
+    <n v="64.134841109999996"/>
+    <s v="Day_of_Week_4"/>
+    <x v="9"/>
+    <s v="Base"/>
+    <n v="1"/>
+    <n v="192.1693544"/>
+    <n v="5.6130192811725717E-2"/>
+    <n v="78.217728862998101"/>
+  </r>
+  <r>
+    <n v="1025.172849"/>
+    <n v="1003.247112"/>
+    <n v="846.72665510000002"/>
+    <s v="Day_of_Week_5"/>
+    <x v="9"/>
+    <s v="Base"/>
+    <n v="1"/>
+    <n v="1025.172849"/>
+    <n v="0.29943978247405806"/>
+    <n v="417.27096493169722"/>
+  </r>
+  <r>
+    <n v="576.63796530000002"/>
+    <n v="490.41359260000002"/>
+    <n v="301.67933849999997"/>
+    <s v="Day_of_Week_6"/>
+    <x v="9"/>
+    <s v="Base"/>
+    <n v="1"/>
+    <n v="576.63796530000002"/>
+    <n v="0.16842852116513227"/>
+    <n v="234.70605998948139"/>
+  </r>
+  <r>
+    <n v="117.88721839999999"/>
+    <n v="164.85815550000001"/>
+    <n v="0"/>
+    <s v="Week_Num_1"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="117.88721839999999"/>
+    <n v="3.4433337820642743E-2"/>
+    <n v="47.983043467123395"/>
+  </r>
+  <r>
+    <n v="-3.6026667259999998"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_2"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-3.6026667259999998"/>
+    <n v="-1.0522925395578507E-3"/>
+    <n v="-1.4663753751884026"/>
+  </r>
+  <r>
+    <n v="20.489658259999999"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_3"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="20.489658259999999"/>
+    <n v="5.9847652211302239E-3"/>
+    <n v="8.3398028748134738"/>
+  </r>
+  <r>
+    <n v="73.501880209999996"/>
+    <n v="4.7213814019999996"/>
+    <n v="0"/>
+    <s v="Week_Num_4"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="73.501880209999996"/>
+    <n v="2.1468952326415613E-2"/>
+    <n v="29.917101793553957"/>
+  </r>
+  <r>
+    <n v="-30.508710990000001"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_5"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-30.508710990000001"/>
+    <n v="-8.9112014538043089E-3"/>
+    <n v="-12.41780767607861"/>
+  </r>
+  <r>
+    <n v="-129.5691406"/>
+    <n v="-89.313653279999997"/>
+    <n v="0"/>
+    <s v="Week_Num_6"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-129.5691406"/>
+    <n v="-3.7845476803702052E-2"/>
+    <n v="-52.737877691816195"/>
+  </r>
+  <r>
+    <n v="-186.63127900000001"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_7"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-186.63127900000001"/>
+    <n v="-5.4512592331261829E-2"/>
+    <n v="-75.963593798577861"/>
+  </r>
+  <r>
+    <n v="-122.3778647"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_8"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-122.3778647"/>
+    <n v="-3.5744997754430102E-2"/>
+    <n v="-49.810848716351138"/>
+  </r>
+  <r>
+    <n v="64.347456519999994"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_9"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="64.347456519999994"/>
+    <n v="1.8795063097801285E-2"/>
+    <n v="26.191022615544153"/>
+  </r>
+  <r>
+    <n v="-117.6534417"/>
+    <n v="-68.111321700000005"/>
+    <n v="0"/>
+    <s v="Week_Num_10"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-117.6534417"/>
+    <n v="-3.4365054658185033E-2"/>
+    <n v="-47.88789050898302"/>
+  </r>
+  <r>
+    <n v="-54.047473070000002"/>
+    <n v="-9.818699917"/>
+    <n v="0"/>
+    <s v="Week_Num_11"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-54.047473070000002"/>
+    <n v="-1.5786570620885915E-2"/>
+    <n v="-21.998671991788989"/>
+  </r>
+  <r>
+    <n v="109.8768579"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_12"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="109.8768579"/>
+    <n v="3.2093614711511925E-2"/>
+    <n v="44.722626593475056"/>
+  </r>
+  <r>
+    <n v="1.4492197570000001"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_13"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="1.4492197570000001"/>
+    <n v="4.2329842154567956E-4"/>
+    <n v="0.58986865189742244"/>
+  </r>
+  <r>
+    <n v="-410.32110510000001"/>
+    <n v="-128.48692199999999"/>
+    <n v="0"/>
+    <s v="Week_Num_14"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-410.32110510000001"/>
+    <n v="-0.11984950886624497"/>
+    <n v="-167.01094222689207"/>
+  </r>
+  <r>
+    <n v="333.51959799999997"/>
+    <n v="289.91659199999998"/>
+    <n v="0"/>
+    <s v="Week_Num_15"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="333.51959799999997"/>
+    <n v="9.7416778032477225E-2"/>
+    <n v="135.75080984327917"/>
+  </r>
+  <r>
+    <n v="-398.49439749999999"/>
+    <n v="-93.351818199999997"/>
+    <n v="0"/>
+    <s v="Week_Num_16"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-398.49439749999999"/>
+    <n v="-0.11639507993303363"/>
+    <n v="-162.19717672673198"/>
+  </r>
+  <r>
+    <n v="59.737853100000002"/>
+    <n v="46.184877120000003"/>
+    <n v="0"/>
+    <s v="Week_Num_17"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="59.737853100000002"/>
+    <n v="1.7448657321718863E-2"/>
+    <n v="24.314798846165093"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <n v="6.0186536200000003"/>
+    <n v="0"/>
+    <s v="Week_Num_18"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_19"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="-7.6539598619999998"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_20"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-7.6539598619999998"/>
+    <n v="-2.235623074077776E-3"/>
+    <n v="-3.1153529088100345"/>
+  </r>
+  <r>
+    <n v="-71.669286929999998"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_21"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-71.669286929999998"/>
+    <n v="-2.0933675437584724E-2"/>
+    <n v="-29.171190538667666"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <n v="161.46955550000001"/>
+    <n v="0"/>
+    <s v="Week_Num_22"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="34.294609180000002"/>
+    <n v="17.81008018"/>
+    <n v="0"/>
+    <s v="Week_Num_23"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="34.294609180000002"/>
+    <n v="1.0017013543529804E-2"/>
+    <n v="13.958762835411418"/>
+  </r>
+  <r>
+    <n v="-77.564510619999993"/>
+    <n v="-69.260498740000003"/>
+    <n v="0"/>
+    <s v="Week_Num_24"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-77.564510619999993"/>
+    <n v="-2.2655594332619284E-2"/>
+    <n v="-31.570693880971358"/>
+  </r>
+  <r>
+    <n v="54.801860529999999"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_25"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="54.801860529999999"/>
+    <n v="1.6006917479607256E-2"/>
+    <n v="22.305726537443046"/>
+  </r>
+  <r>
+    <n v="210.0068704"/>
+    <n v="7.5483298349999997"/>
+    <n v="0"/>
+    <s v="Week_Num_26"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="210.0068704"/>
+    <n v="6.1340301444750514E-2"/>
+    <n v="85.478043570478803"/>
+  </r>
+  <r>
+    <n v="146.76724110000001"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_27"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="146.76724110000001"/>
+    <n v="4.2868820406403135E-2"/>
+    <n v="59.73793431409932"/>
+  </r>
+  <r>
+    <n v="188.46541049999999"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_28"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="188.46541049999999"/>
+    <n v="5.5048318514338702E-2"/>
+    <n v="76.710131147438744"/>
+  </r>
+  <r>
+    <n v="112.99245430000001"/>
+    <n v="12.12842367"/>
+    <n v="0"/>
+    <s v="Week_Num_29"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="112.99245430000001"/>
+    <n v="3.3003640283495207E-2"/>
+    <n v="45.990752175842793"/>
+  </r>
+  <r>
+    <n v="436.19532609999999"/>
+    <n v="366.42392389999998"/>
+    <n v="0"/>
+    <s v="Week_Num_30"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="436.19532609999999"/>
+    <n v="0.12740703549746937"/>
+    <n v="177.54239667777557"/>
+  </r>
+  <r>
+    <n v="195.9290436"/>
+    <n v="152.9918481"/>
+    <n v="0"/>
+    <s v="Week_Num_31"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="195.9290436"/>
+    <n v="5.7228349593107727E-2"/>
+    <n v="79.748016308532357"/>
+  </r>
+  <r>
+    <n v="-33.292483490000002"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_32"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-33.292483490000002"/>
+    <n v="-9.724305539296204E-3"/>
+    <n v="-13.550872640058477"/>
+  </r>
+  <r>
+    <n v="-52.829116419999998"/>
+    <n v="-13.26815107"/>
+    <n v="0"/>
+    <s v="Week_Num_33"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-52.829116419999998"/>
+    <n v="-1.5430704338816808E-2"/>
+    <n v="-21.502770392880713"/>
+  </r>
+  <r>
+    <n v="-75.206415239999998"/>
+    <n v="-28.037396099999999"/>
+    <n v="0"/>
+    <s v="Week_Num_34"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-75.206415239999998"/>
+    <n v="-2.196682505012312E-2"/>
+    <n v="-30.610890140974366"/>
+  </r>
+  <r>
+    <n v="-9.8012408690000008"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_35"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-9.8012408690000008"/>
+    <n v="-2.8628161940223293E-3"/>
+    <n v="-3.9893499315017626"/>
+  </r>
+  <r>
+    <n v="-88.886605549999999"/>
+    <n v="-26.302797699999999"/>
+    <n v="0"/>
+    <s v="Week_Num_36"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-88.886605549999999"/>
+    <n v="-2.5962632405561691E-2"/>
+    <n v="-36.179069415982603"/>
+  </r>
+  <r>
+    <n v="134.1738545"/>
+    <n v="19.224443610000002"/>
+    <n v="0"/>
+    <s v="Week_Num_37"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="134.1738545"/>
+    <n v="3.9190454413981383E-2"/>
+    <n v="54.61211130438371"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <n v="-5.0363204039999996"/>
+    <n v="0"/>
+    <s v="Week_Num_38"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="35.398979140000002"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_39"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="35.398979140000002"/>
+    <n v="1.0339585781875618E-2"/>
+    <n v="14.40826900337157"/>
+  </r>
+  <r>
+    <n v="-85.061189319999997"/>
+    <n v="-30.058416659999999"/>
+    <n v="0"/>
+    <s v="Week_Num_40"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-85.061189319999997"/>
+    <n v="-2.4845277605440631E-2"/>
+    <n v="-34.622029426955862"/>
+  </r>
+  <r>
+    <n v="-164.20699980000001"/>
+    <n v="-91.094120790000005"/>
+    <n v="0"/>
+    <s v="Week_Num_41"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-164.20699980000001"/>
+    <n v="-4.7962749256179042E-2"/>
+    <n v="-66.836351861953204"/>
+  </r>
+  <r>
+    <n v="-833.72380180000005"/>
+    <n v="-561.47488109999995"/>
+    <n v="0"/>
+    <s v="Week_Num_42"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-833.72380180000005"/>
+    <n v="-0.24351998211614431"/>
+    <n v="-339.34641909698985"/>
+  </r>
+  <r>
+    <n v="-98.466292159999995"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_43"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-98.466292159999995"/>
+    <n v="-2.8760735454687648E-2"/>
+    <n v="-40.078241228225906"/>
+  </r>
+  <r>
+    <n v="-315.89532759999997"/>
+    <n v="-270.4490864"/>
+    <n v="0"/>
+    <s v="Week_Num_44"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-315.89532759999997"/>
+    <n v="-9.2268955692090621E-2"/>
+    <n v="-128.57729142324038"/>
+  </r>
+  <r>
+    <n v="-265.33898950000003"/>
+    <n v="-267.00031890000002"/>
+    <n v="0"/>
+    <s v="Week_Num_45"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-265.33898950000003"/>
+    <n v="-7.750210062163515E-2"/>
+    <n v="-107.99959859516966"/>
+  </r>
+  <r>
+    <n v="-148.8260076"/>
+    <n v="-164.27951440000001"/>
+    <n v="0"/>
+    <s v="Week_Num_46"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="-148.8260076"/>
+    <n v="-4.347015957913504E-2"/>
+    <n v="-60.575903720782314"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_47"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="193.50800889999999"/>
+    <n v="60.77223927"/>
+    <n v="0"/>
+    <s v="Week_Num_48"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="193.50800889999999"/>
+    <n v="5.6521196546051027E-2"/>
+    <n v="78.762594692667733"/>
+  </r>
+  <r>
+    <n v="146.636358"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Week_Num_49"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="146.636358"/>
+    <n v="4.2830591138985678E-2"/>
+    <n v="59.684661622100563"/>
+  </r>
+  <r>
+    <n v="462.65696680000002"/>
+    <n v="285.21537710000001"/>
+    <n v="0"/>
+    <s v="Week_Num_50"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="462.65696680000002"/>
+    <n v="0.13513613985566986"/>
+    <n v="188.31294562406833"/>
+  </r>
+  <r>
+    <n v="1295.100623"/>
+    <n v="1084.749053"/>
+    <n v="405.58497670000003"/>
+    <s v="Week_Num_51"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="1295.100623"/>
+    <n v="0.37828220793344197"/>
+    <n v="527.13831347561597"/>
+  </r>
+  <r>
+    <n v="1099.5451860000001"/>
+    <n v="721.34476949999998"/>
+    <n v="81.268530429999998"/>
+    <s v="Week_Num_52"/>
+    <x v="10"/>
+    <s v="Holiday/Seasonality"/>
+    <n v="1"/>
+    <n v="1099.5451860000001"/>
+    <n v="0.32116298401523286"/>
+    <n v="447.54236438837108"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N6:O18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="7"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of USD Avg. Store Daily Sales" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3001,83 +4541,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J137"/>
+  <dimension ref="A3:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="43.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H2">
-        <f>SUM(H5:H137)</f>
-        <v>2547.3728682547207</v>
-      </c>
-      <c r="J2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.67601348500000003</v>
+      </c>
+      <c r="B3">
+        <v>0.66921181399999996</v>
+      </c>
+      <c r="C3">
+        <v>0.63266813099999997</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <f>SUM(H5:H121)</f>
+        <v>3423.6360998185528</v>
+      </c>
+      <c r="J3">
         <v>1393.505437</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0.67726619382279696</v>
-      </c>
-      <c r="B4">
-        <v>0.66974591296226704</v>
-      </c>
-      <c r="C4">
-        <v>0.63232529184649</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-596.06471842530402</v>
+        <v>-683.29455829999995</v>
       </c>
       <c r="B5">
-        <v>-467.62296578130099</v>
+        <v>-358.53602460000002</v>
       </c>
       <c r="C5">
-        <v>126.00303281662001</v>
+        <v>153.2107613</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -3095,95 +4634,105 @@
       </c>
       <c r="H5">
         <f>A5*G5</f>
-        <v>-596.06471842530402</v>
-      </c>
-      <c r="I5">
-        <f>H5/$H$2</f>
-        <v>-0.23399193963845791</v>
+        <v>-683.29455829999995</v>
+      </c>
+      <c r="I5" s="4">
+        <f>H5/$H$3</f>
+        <v>-0.19958153798419564</v>
       </c>
       <c r="J5" s="3">
-        <f>I5*$J$2</f>
-        <v>-326.06904010036692</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <f>I5*$J$3</f>
+        <v>-278.11795830579865</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>52.047102802468103</v>
+        <v>52.036253709999997</v>
       </c>
       <c r="B6">
-        <v>45.557962522448697</v>
+        <v>45.401782400000002</v>
       </c>
       <c r="C6">
-        <v>9.4197385965370692</v>
+        <v>9.2361252389999997</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Base</v>
+        <v>128</v>
+      </c>
+      <c r="F6" t="s">
+        <v>129</v>
       </c>
       <c r="G6">
         <v>8.6258610000000004</v>
       </c>
       <c r="H6">
         <f t="shared" ref="H6:H69" si="0">A6*G6</f>
-        <v>448.95107422680036</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ref="I6:I69" si="1">H6/$H$2</f>
-        <v>0.17624081649828899</v>
+        <v>448.85749146319432</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" ref="I6:I69" si="1">H6/$H$3</f>
+        <v>0.13110549088058251</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" ref="J6:J69" si="2">I6*$J$2</f>
-        <v>245.59253601168501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J6:J69" si="2">I6*$J$3</f>
+        <v>182.69621436264566</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>45.822830198970102</v>
+        <v>45.816331720000001</v>
       </c>
       <c r="B7">
-        <v>46.849213384326703</v>
+        <v>46.826621729999999</v>
       </c>
       <c r="C7">
-        <v>57.113831961164998</v>
+        <v>57.090088090000002</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Base</v>
+        <v>130</v>
+      </c>
+      <c r="F7" t="s">
+        <v>129</v>
       </c>
       <c r="G7">
         <v>21.081174000000001</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>965.99905659694343</v>
-      </c>
-      <c r="I7">
+        <v>965.86206103103939</v>
+      </c>
+      <c r="I7" s="4">
         <f t="shared" si="1"/>
-        <v>0.37921384365641669</v>
+        <v>0.28211586537547856</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="2"/>
-        <v>528.43655292088465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>393.12999226468941</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O7" s="3">
+        <v>18.921708398382446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3.1196007901375302</v>
+        <v>5.3449809750000004</v>
       </c>
       <c r="B8">
-        <v>2.56845766400401</v>
+        <v>3.5958107099999999</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3192,31 +4741,36 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Weather</v>
+        <v>131</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>3.1196007901375302</v>
-      </c>
-      <c r="I8">
+        <v>5.3449809750000004</v>
+      </c>
+      <c r="I8" s="4">
         <f t="shared" si="1"/>
-        <v>1.2246345358443184E-3</v>
+        <v>1.56120008644706E-3</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="2"/>
-        <v>1.7065348840370291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.1755408087088481</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O8" s="3">
+        <v>-25.535000065206702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>-57.321353709323901</v>
+        <v>-54.275031679999998</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3228,175 +4782,200 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Weather</v>
+        <v>131</v>
+      </c>
+      <c r="F9" t="s">
+        <v>131</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>-57.321353709323901</v>
-      </c>
-      <c r="I9">
+        <v>-54.275031679999998</v>
+      </c>
+      <c r="I9" s="4">
         <f t="shared" si="1"/>
-        <v>-2.2502145023078787E-2</v>
+        <v>-1.5853037559358744E-2</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="2"/>
-        <v>-31.356861433822779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-22.091294031931621</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O9" s="3">
+        <v>46.332734040291633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>11.7535785779476</v>
+        <v>11.251937180000001</v>
       </c>
       <c r="B10">
-        <v>10.472485510003599</v>
+        <v>10.16618336</v>
       </c>
       <c r="C10">
-        <v>0.71439815978632804</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Weather</v>
+        <v>131</v>
+      </c>
+      <c r="F10" t="s">
+        <v>131</v>
       </c>
       <c r="G10">
         <v>51.137203</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>601.04513371695771</v>
-      </c>
-      <c r="I10">
+        <v>575.39259571690752</v>
+      </c>
+      <c r="I10" s="4">
         <f t="shared" si="1"/>
-        <v>0.2359470579306088</v>
+        <v>0.1680647647532991</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="2"/>
-        <v>328.79350807045734</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>234.19916345184825</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O10" s="3">
+        <v>643.01612913364386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-9.7305991762787407</v>
+        <v>-9.3129340490000008</v>
       </c>
       <c r="B11">
-        <v>-10.589815135458601</v>
+        <v>-11.33993746</v>
       </c>
       <c r="C11">
-        <v>-2.1532405343446999</v>
+        <v>-2.3450716200000001</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Weather</v>
+        <v>131</v>
+      </c>
+      <c r="F11" t="s">
+        <v>131</v>
       </c>
       <c r="G11">
         <v>45.474352000000003</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>-442.49269211300953</v>
-      </c>
-      <c r="I11">
+        <v>-423.49964109701131</v>
+      </c>
+      <c r="I11" s="4">
         <f t="shared" si="1"/>
-        <v>-0.17370550563183715</v>
+        <v>-0.1236987894593868</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="2"/>
-        <v>-242.05956653479919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-172.37493566197381</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" s="3">
+        <v>-72.258654151109482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-1.72270513863704</v>
+        <v>-1.1953691230000001</v>
       </c>
       <c r="B12">
-        <v>-2.1113127460830299</v>
+        <v>-1.574368188</v>
       </c>
       <c r="C12">
-        <v>-0.98236232756224096</v>
+        <v>-0.91563770200000005</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Weather</v>
+        <v>131</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
       </c>
       <c r="G12">
         <v>8.5805030000000002</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>-14.781676610190537</v>
-      </c>
-      <c r="I12">
+        <v>-10.25686834600887</v>
+      </c>
+      <c r="I12" s="4">
         <f t="shared" si="1"/>
-        <v>-5.8027141587316559E-3</v>
+        <v>-2.9958991104669297E-3</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="2"/>
-        <v>-8.0861137295494441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-4.1748016991391301</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" s="3">
+        <v>-687.03657615013651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>4.2199194686411001</v>
+        <v>4.4423356270000003</v>
       </c>
       <c r="B13">
-        <v>4.3317175093154496</v>
+        <v>4.4243729360000001</v>
       </c>
       <c r="C13">
-        <v>0.493207580791996</v>
+        <v>0.77820998699999999</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Weather</v>
+        <v>131</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
       </c>
       <c r="G13">
         <v>79.625765000000001</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>336.01431592894113</v>
-      </c>
-      <c r="I13">
+        <v>353.72437268662969</v>
+      </c>
+      <c r="I13" s="4">
         <f t="shared" si="1"/>
-        <v>0.13190621605354316</v>
+        <v>0.10331833243181905</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="2"/>
-        <v>183.81202924470909</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>143.97465798551329</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" s="3">
+        <v>393.12999226468941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-121.32738953767701</v>
+        <v>-117.55212229999999</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3408,31 +4987,36 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Weather</v>
+        <v>131</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
       </c>
       <c r="G14">
         <v>1.4695E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>-1.7829059892561636</v>
-      </c>
-      <c r="I14">
+        <v>-1.7274284371984998</v>
+      </c>
+      <c r="I14" s="4">
         <f t="shared" si="1"/>
-        <v>-6.998998895978995E-4</v>
+        <v>-5.0455959302743967E-4</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="2"/>
-        <v>-0.97531430151037268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-0.70310653617424446</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" s="3">
+        <v>182.69621436264566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>-134.41884310755799</v>
+        <v>-77.897143959999994</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3444,34 +5028,39 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>-134.41884310755799</v>
-      </c>
-      <c r="I15">
+        <v>-77.897143959999994</v>
+      </c>
+      <c r="I15" s="4">
         <f t="shared" si="1"/>
-        <v>-5.2767635544321491E-2</v>
+        <v>-2.2752752246107118E-2</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="2"/>
-        <v>-73.531987028646455</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-31.70608396166423</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" s="3">
+        <v>2.7087764020676781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>456.90518347027802</v>
+        <v>504.9403959</v>
       </c>
       <c r="B16">
-        <v>56.779484394064603</v>
+        <v>28.479127030000001</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3480,34 +5069,39 @@
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>456.90518347027802</v>
-      </c>
-      <c r="I16">
+        <v>504.9403959</v>
+      </c>
+      <c r="I16" s="4">
         <f t="shared" si="1"/>
-        <v>0.17936329194842884</v>
+        <v>0.14748658478240753</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="2"/>
-        <v>249.94372252835393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>205.52335777884636</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" s="3">
+        <v>710.52488844788036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>380.61330406488298</v>
+        <v>441.56727660000001</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.42250051599999999</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3516,31 +5110,36 @@
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F17" t="s">
+        <v>133</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>380.61330406488298</v>
-      </c>
-      <c r="I17">
+        <v>441.56727660000001</v>
+      </c>
+      <c r="I17" s="4">
         <f t="shared" si="1"/>
-        <v>0.14941405273176683</v>
+        <v>0.12897611303473588</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="2"/>
-        <v>208.20929484592179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>179.72891475703102</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O17" s="3">
+        <v>181.00522431685161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0</v>
+        <v>59.568525379999997</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3552,31 +5151,36 @@
         <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
-      </c>
-      <c r="F18" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F18" t="s">
+        <v>133</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18">
+        <v>59.568525379999997</v>
+      </c>
+      <c r="I18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.7399198876059587E-2</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24.245878233233324</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1393.5054369999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>-91.876099798321704</v>
+        <v>-38.025482029999999</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3588,34 +5192,33 @@
         <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F19" t="s">
+        <v>133</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>-91.876099798321704</v>
-      </c>
-      <c r="I19">
+        <v>-38.025482029999999</v>
+      </c>
+      <c r="I19" s="4">
         <f t="shared" si="1"/>
-        <v>-3.6067001004555996E-2</v>
+        <v>-1.1106753440301464E-2</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="2"/>
-        <v>-50.259561996133243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-15.477321306478546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>-1016.85680045489</v>
+        <v>-964.50673489999997</v>
       </c>
       <c r="B20">
-        <v>-514.671266174783</v>
+        <v>-506.91436060000001</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3624,31 +5227,30 @@
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F20" t="s">
+        <v>133</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>-1016.85680045489</v>
-      </c>
-      <c r="I20">
+        <v>-964.50673489999997</v>
+      </c>
+      <c r="I20" s="4">
         <f t="shared" si="1"/>
-        <v>-0.39917862560559036</v>
+        <v>-0.28171999207249782</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="2"/>
-        <v>-556.25758511557763</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-392.5783406646226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>-310.75217034900999</v>
+        <v>-257.21313070000002</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3660,31 +5262,30 @@
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F21" t="s">
+        <v>133</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>-310.75217034900999</v>
-      </c>
-      <c r="I21">
+        <v>-257.21313070000002</v>
+      </c>
+      <c r="I21" s="4">
         <f t="shared" si="1"/>
-        <v>-0.12198927539096989</v>
+        <v>-7.5128641946973246E-2</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="2"/>
-        <v>-169.99271851300685</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-104.69217102753349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>-815.30161864888998</v>
+        <v>-782.56097250000005</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3696,31 +5297,30 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F22" t="s">
+        <v>133</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>-815.30161864888998</v>
-      </c>
-      <c r="I22">
+        <v>-782.56097250000005</v>
+      </c>
+      <c r="I22" s="4">
         <f t="shared" si="1"/>
-        <v>-0.32005586178967071</v>
+        <v>-0.22857597877925009</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="2"/>
-        <v>-445.99958354762668</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-318.52186919648165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0</v>
+        <v>39.488981389999999</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3732,31 +5332,30 @@
         <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
-      </c>
-      <c r="F23" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F23" t="s">
+        <v>133</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
+        <v>39.488981389999999</v>
+      </c>
+      <c r="I23" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.1534222749927438E-2</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>16.073002113592977</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>-333.21475286454898</v>
+        <v>-237.68403699999999</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3768,29 +5367,28 @@
         <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>-333.21475286454898</v>
-      </c>
-      <c r="I24">
+        <v>-237.68403699999999</v>
+      </c>
+      <c r="I24" s="4">
         <f t="shared" si="1"/>
-        <v>-0.13080721594277014</v>
+        <v>-6.9424445259412021E-2</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="2"/>
-        <v>-182.28056661508327</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-96.743341929699525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -3804,11 +5402,10 @@
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F25" t="s">
+        <v>133</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -3817,7 +5414,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3826,9 +5423,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>-71.661689464841302</v>
+        <v>-4.7517473260000003</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3840,34 +5437,33 @@
         <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
-      </c>
-      <c r="F26" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F26" t="s">
+        <v>133</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>-71.661689464841302</v>
-      </c>
-      <c r="I26">
+        <v>-4.7517473260000003</v>
+      </c>
+      <c r="I26" s="4">
         <f t="shared" si="1"/>
-        <v>-2.8131605842979246E-2</v>
+        <v>-1.3879241798659136E-3</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="2"/>
-        <v>-39.201545693732548</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-1.9340798907869166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>377.58384833589599</v>
+        <v>436.00576330000001</v>
       </c>
       <c r="B27">
-        <v>76.229892762962905</v>
+        <v>90.240997870000001</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3876,34 +5472,33 @@
         <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
-      </c>
-      <c r="F27" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F27" t="s">
+        <v>133</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>377.58384833589599</v>
-      </c>
-      <c r="I27">
+        <v>436.00576330000001</v>
+      </c>
+      <c r="I27" s="4">
         <f t="shared" si="1"/>
-        <v>0.14822480565814838</v>
+        <v>0.12735166664561914</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="2"/>
-        <v>206.55207258289815</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>177.46523988168184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>788.06842875864095</v>
+        <v>847.82395570000006</v>
       </c>
       <c r="B28">
-        <v>401.322159138176</v>
+        <v>405.59708280000001</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3912,31 +5507,30 @@
         <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F28" t="s">
+        <v>133</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>788.06842875864095</v>
-      </c>
-      <c r="I28">
+        <v>847.82395570000006</v>
+      </c>
+      <c r="I28" s="4">
         <f t="shared" si="1"/>
-        <v>0.30936516541395431</v>
+        <v>0.24763845542606977</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="2"/>
-        <v>431.10204002274969</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>345.08553404651036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>-348.98997796158301</v>
+        <v>-288.26720499999999</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3948,34 +5542,33 @@
         <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
-      </c>
-      <c r="F29" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F29" t="s">
+        <v>133</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>-348.98997796158301</v>
-      </c>
-      <c r="I29">
+        <v>-288.26720499999999</v>
+      </c>
+      <c r="I29" s="4">
         <f t="shared" si="1"/>
-        <v>-0.13699995878525872</v>
+        <v>-8.4199136998023144E-2</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="2"/>
-        <v>-190.91018743603397</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-117.33195519745311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>-1870.50524740521</v>
+        <v>-1804.196518</v>
       </c>
       <c r="B30">
-        <v>-547.84205243853398</v>
+        <v>-563.41476339999997</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3984,34 +5577,33 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
-      </c>
-      <c r="F30" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F30" t="s">
+        <v>133</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>-1870.50524740521</v>
-      </c>
-      <c r="I30">
+        <v>-1804.196518</v>
+      </c>
+      <c r="I30" s="4">
         <f t="shared" si="1"/>
-        <v>-0.73428796809269137</v>
+        <v>-0.52698256047002756</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="2"/>
-        <v>-1023.234275860848</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-734.35306321916471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>-1141.4296063382001</v>
+        <v>-1082.4861169999999</v>
       </c>
       <c r="B31">
-        <v>-640.05371740355395</v>
+        <v>-611.4073793</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -4020,34 +5612,33 @@
         <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
-      </c>
-      <c r="F31" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F31" t="s">
+        <v>133</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>-1141.4296063382001</v>
-      </c>
-      <c r="I31">
+        <v>-1082.4861169999999</v>
+      </c>
+      <c r="I31" s="4">
         <f t="shared" si="1"/>
-        <v>-0.44808108799565988</v>
+        <v>-0.31618024972261799</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="2"/>
-        <v>-624.40343233882743</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-440.59889706048591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>228.591747338076</v>
+        <v>276.42680919999998</v>
       </c>
       <c r="B32">
-        <v>37.270731118460397</v>
+        <v>17.15593853</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -4056,34 +5647,33 @@
         <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
-      </c>
-      <c r="F32" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F32" t="s">
+        <v>133</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>228.591747338076</v>
-      </c>
-      <c r="I32">
+        <v>276.42680919999998</v>
+      </c>
+      <c r="I32" s="4">
         <f t="shared" si="1"/>
-        <v>8.9736273078346349E-2</v>
+        <v>8.0740709917929115E-2</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="2"/>
-        <v>125.04798443079237</v>
+        <v>112.51261825787405</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>-54.7859787762848</v>
+        <v>0</v>
       </c>
       <c r="B33">
-        <v>-53.618859164404803</v>
+        <v>-48.466168570000001</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -4092,31 +5682,30 @@
         <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F33" t="s">
+        <v>133</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>-54.7859787762848</v>
-      </c>
-      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
         <f t="shared" si="1"/>
-        <v>-2.1506854948101992E-2</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="2"/>
-        <v>-29.96991930295048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>-130.64488785464499</v>
+        <v>-61.347500549999999</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4128,31 +5717,30 @@
         <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F34" t="s">
+        <v>133</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>-130.64488785464499</v>
-      </c>
-      <c r="I34">
+        <v>-61.347500549999999</v>
+      </c>
+      <c r="I34" s="4">
         <f t="shared" si="1"/>
-        <v>-5.1286126771128565E-2</v>
+        <v>-1.79188146056911E-2</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="2"/>
-        <v>-71.467496498238916</v>
+        <v>-24.969965577625558</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>87.023074559331604</v>
+        <v>143.04397710000001</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4164,34 +5752,33 @@
         <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
-      </c>
-      <c r="F35" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F35" t="s">
+        <v>133</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>87.023074559331604</v>
-      </c>
-      <c r="I35">
+        <v>143.04397710000001</v>
+      </c>
+      <c r="I35" s="4">
         <f t="shared" si="1"/>
-        <v>3.4161891116848413E-2</v>
+        <v>4.1781302956695986E-2</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="2"/>
-        <v>47.604781009530264</v>
+        <v>58.222472835100035</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>159.03266539785901</v>
+        <v>157.22571009999999</v>
       </c>
       <c r="B36">
-        <v>83.970110442633001</v>
+        <v>24.045450890000001</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4200,31 +5787,30 @@
         <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F36" t="s">
+        <v>133</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>159.03266539785901</v>
-      </c>
-      <c r="I36">
+        <v>157.22571009999999</v>
+      </c>
+      <c r="I36" s="4">
         <f t="shared" si="1"/>
-        <v>6.2430069574705378E-2</v>
+        <v>4.5923604470794278E-2</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="2"/>
-        <v>86.996641384640228</v>
+        <v>63.994792516689337</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>57.802276855819699</v>
+        <v>9.5665655849999993</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4236,31 +5822,30 @@
         <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
-      </c>
-      <c r="F37" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F37" t="s">
+        <v>133</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>57.802276855819699</v>
-      </c>
-      <c r="I37">
+        <v>9.5665655849999993</v>
+      </c>
+      <c r="I37" s="4">
         <f t="shared" si="1"/>
-        <v>2.2690936837771111E-2</v>
+        <v>2.7942705667541629E-3</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="2"/>
-        <v>31.619943854057631</v>
+        <v>3.8938312272209976</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>63.072569893972201</v>
+        <v>-85.435203529999995</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4272,31 +5857,30 @@
         <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
-      </c>
-      <c r="F38" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F38" t="s">
+        <v>133</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>63.072569893972201</v>
-      </c>
-      <c r="I38">
+        <v>-85.435203529999995</v>
+      </c>
+      <c r="I38" s="4">
         <f t="shared" si="1"/>
-        <v>2.4759849914388486E-2</v>
+        <v>-2.495452233796925E-2</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" si="2"/>
-        <v>34.502985475004337</v>
+        <v>-34.774262555698101</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>30.073742400300301</v>
+        <v>28.469730340000002</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4308,31 +5892,30 @@
         <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
-      </c>
-      <c r="F39" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F39" t="s">
+        <v>133</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>30.073742400300301</v>
-      </c>
-      <c r="I39">
+        <v>28.469730340000002</v>
+      </c>
+      <c r="I39" s="4">
         <f t="shared" si="1"/>
-        <v>1.1805787356487272E-2</v>
+        <v>8.3156414729675422E-3</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="2"/>
-        <v>16.451428869330872</v>
+        <v>11.587891604722959</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>351.821926660614</v>
+        <v>296.64551110000002</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4344,31 +5927,30 @@
         <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>147</v>
-      </c>
-      <c r="F40" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F40" t="s">
+        <v>133</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>351.821926660614</v>
-      </c>
-      <c r="I40">
+        <v>296.64551110000002</v>
+      </c>
+      <c r="I40" s="4">
         <f t="shared" si="1"/>
-        <v>0.13811167224280654</v>
+        <v>8.6646332276880053E-2</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="2"/>
-        <v>192.45936618351291</v>
+        <v>120.74213512394094</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>-12.122791333177</v>
+        <v>-71.172949160000002</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4380,31 +5962,30 @@
         <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
-      </c>
-      <c r="F41" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F41" t="s">
+        <v>133</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>-12.122791333177</v>
-      </c>
-      <c r="I41">
+        <v>-71.172949160000002</v>
+      </c>
+      <c r="I41" s="4">
         <f t="shared" si="1"/>
-        <v>-4.7589387027909573E-3</v>
+        <v>-2.0788701569004968E-2</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="2"/>
-        <v>-6.631606956688926</v>
+        <v>-28.969168664578856</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>-222.991874124275</v>
+        <v>280.56459690000003</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4416,34 +5997,33 @@
         <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
-      </c>
-      <c r="F42" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F42" t="s">
+        <v>133</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>-222.991874124275</v>
-      </c>
-      <c r="I42">
+        <v>280.56459690000003</v>
+      </c>
+      <c r="I42" s="4">
         <f t="shared" si="1"/>
-        <v>-8.7537979580136302E-2</v>
+        <v>8.194930440033317E-2</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="2"/>
-        <v>-121.98465048891492</v>
+        <v>114.1968012402323</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>386.21786864844302</v>
+        <v>127.7332078</v>
       </c>
       <c r="B43">
-        <v>20.8538037452034</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -4452,67 +6032,65 @@
         <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
-      </c>
-      <c r="F43" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F43" t="s">
+        <v>133</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>386.21786864844302</v>
-      </c>
-      <c r="I43">
+        <v>127.7332078</v>
+      </c>
+      <c r="I43" s="4">
         <f t="shared" si="1"/>
-        <v>0.15161418788017952</v>
+        <v>3.7309224484100297E-2</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="2"/>
-        <v>211.27519513736968</v>
+        <v>51.990607168847284</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>-192.00386876924799</v>
+        <v>-1.113836E-2</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>8.9728877619999992</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>232.22158780000001</v>
       </c>
       <c r="D44" t="s">
         <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>147</v>
-      </c>
-      <c r="F44" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F44" t="s">
+        <v>133</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>-192.00386876924799</v>
-      </c>
-      <c r="I44">
+        <v>-1.113836E-2</v>
+      </c>
+      <c r="I44" s="4">
         <f t="shared" si="1"/>
-        <v>-7.5373287971303327E-2</v>
+        <v>-3.2533714668420267E-6</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="2"/>
-        <v>-105.03308659257789</v>
+        <v>-4.5335908276250298E-3</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>404.021820519828</v>
+        <v>71.23734365</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4524,34 +6102,33 @@
         <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
-      </c>
-      <c r="F45" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F45" t="s">
+        <v>133</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>404.021820519828</v>
-      </c>
-      <c r="I45">
+        <v>71.23734365</v>
+      </c>
+      <c r="I45" s="4">
         <f t="shared" si="1"/>
-        <v>0.15860333033877178</v>
+        <v>2.0807510369976374E-2</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" si="2"/>
-        <v>221.01460315338554</v>
+        <v>28.995378830995961</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>6.6949257445949302</v>
+        <v>397.17671910000001</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>201.34350839999999</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -4560,70 +6137,68 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>147</v>
-      </c>
-      <c r="F46" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F46" t="s">
+        <v>133</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>6.6949257445949302</v>
-      </c>
-      <c r="I46">
+        <v>397.17671910000001</v>
+      </c>
+      <c r="I46" s="4">
         <f t="shared" si="1"/>
-        <v>2.6281687412262572E-3</v>
+        <v>0.11601020304729517</v>
       </c>
       <c r="J46" s="3">
         <f t="shared" si="2"/>
-        <v>3.6623674302522353</v>
+        <v>161.66084869387979</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>-55.460096180490403</v>
+        <v>-155.17546010000001</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>-184.60747559999999</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>-198.24778670000001</v>
       </c>
       <c r="D47" t="s">
         <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>147</v>
-      </c>
-      <c r="F47" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F47" t="s">
+        <v>133</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>-55.460096180490403</v>
-      </c>
-      <c r="I47">
+        <v>-155.17546010000001</v>
+      </c>
+      <c r="I47" s="4">
         <f t="shared" si="1"/>
-        <v>-2.177148735139341E-2</v>
+        <v>-4.5324752857999147E-2</v>
       </c>
       <c r="J47" s="3">
         <f t="shared" si="2"/>
-        <v>-30.338685995743447</v>
+        <v>-63.160289538303104</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0</v>
+        <v>469.7669745</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>188.57853890000001</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -4632,70 +6207,68 @@
         <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F48" t="s">
+        <v>133</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I48">
+        <v>469.7669745</v>
+      </c>
+      <c r="I48" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.13721288151065381</v>
       </c>
       <c r="J48" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>191.20689641153285</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>-140.05529330040599</v>
+        <v>-189.6033382</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-241.70533929999999</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-130.5246631</v>
       </c>
       <c r="D49" t="s">
         <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>147</v>
-      </c>
-      <c r="F49" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F49" t="s">
+        <v>133</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>-140.05529330040599</v>
-      </c>
-      <c r="I49">
+        <v>-189.6033382</v>
+      </c>
+      <c r="I49" s="4">
         <f t="shared" si="1"/>
-        <v>-5.4980287748908133E-2</v>
+        <v>-5.5380692536233234E-2</v>
       </c>
       <c r="J49" s="3">
         <f t="shared" si="2"/>
-        <v>-76.615329905927979</v>
+        <v>-77.173296154066335</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0</v>
+        <v>-174.86429509999999</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>-209.8850194</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4704,70 +6277,68 @@
         <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
-      </c>
-      <c r="F50" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>132</v>
+      </c>
+      <c r="F50" t="s">
+        <v>133</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I50">
+        <v>-174.86429509999999</v>
+      </c>
+      <c r="I50" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5.1075607921434035E-2</v>
       </c>
       <c r="J50" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-71.174137336598605</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>270.32964311570299</v>
+        <v>-177.52879200000001</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>-241.5853371</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>-185.42424840000001</v>
       </c>
       <c r="D51" t="s">
         <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
-      </c>
-      <c r="F51" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>134</v>
+      </c>
+      <c r="F51" t="s">
+        <v>135</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>270.32964311570299</v>
-      </c>
-      <c r="I51">
+        <v>-177.52879200000001</v>
+      </c>
+      <c r="I51" s="4">
         <f t="shared" si="1"/>
-        <v>0.10612095562630126</v>
+        <v>-5.1853873140725662E-2</v>
       </c>
       <c r="J51" s="3">
         <f t="shared" si="2"/>
-        <v>147.88012864488655</v>
+        <v>-72.258654151109482</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>-120.67211835822501</v>
+        <v>6.65506171</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>11.36593124</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -4776,34 +6347,33 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
-      </c>
-      <c r="F52" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>135</v>
+      </c>
+      <c r="F52" t="s">
+        <v>135</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>-120.67211835822501</v>
-      </c>
-      <c r="I52">
+        <v>6.65506171</v>
+      </c>
+      <c r="I52" s="4">
         <f t="shared" si="1"/>
-        <v>-4.7371203431596953E-2</v>
+        <v>1.9438577921154377E-3</v>
       </c>
       <c r="J52" s="3">
         <f t="shared" si="2"/>
-        <v>-66.012029539163407</v>
+        <v>2.7087764020676781</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>233.864038774249</v>
+        <v>-49.483520130000002</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>-111.675843</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -4812,214 +6382,208 @@
         <v>53</v>
       </c>
       <c r="E53" t="s">
-        <v>147</v>
-      </c>
-      <c r="F53" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>136</v>
+      </c>
+      <c r="F53" t="s">
+        <v>136</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>233.864038774249</v>
-      </c>
-      <c r="I53">
+        <v>-49.483520130000002</v>
+      </c>
+      <c r="I53" s="4">
         <f t="shared" si="1"/>
-        <v>9.1805970648684843E-2</v>
+        <v>-1.4453498761922317E-2</v>
       </c>
       <c r="J53" s="3">
         <f t="shared" si="2"/>
-        <v>127.93211924800475</v>
+        <v>-20.141029108411519</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>116.039792520536</v>
+        <v>95.971350189999995</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>88.192132810000004</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>65.3409616</v>
       </c>
       <c r="D54" t="s">
         <v>54</v>
       </c>
       <c r="E54" t="s">
-        <v>147</v>
-      </c>
-      <c r="F54" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>136</v>
+      </c>
+      <c r="F54" t="s">
+        <v>136</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>116.039792520536</v>
-      </c>
-      <c r="I54">
+        <v>95.971350189999995</v>
+      </c>
+      <c r="I54" s="4">
         <f t="shared" si="1"/>
-        <v>4.5552731587362096E-2</v>
+        <v>2.8031995046169284E-2</v>
       </c>
       <c r="J54" s="3">
         <f t="shared" si="2"/>
-        <v>63.477979137190722</v>
+        <v>39.062737506793965</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>0</v>
+        <v>-87.745960789999998</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>209.310299756403</v>
+        <v>0</v>
       </c>
       <c r="D55" t="s">
         <v>55</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
-      </c>
-      <c r="F55" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>137</v>
+      </c>
+      <c r="F55" t="s">
+        <v>137</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I55">
+        <v>-87.745960789999998</v>
+      </c>
+      <c r="I55" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.5629464765443498E-2</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-35.714798498045447</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>44.224843203167097</v>
+        <v>94.485597889999994</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>249.54671830000001</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>187.41988259999999</v>
       </c>
       <c r="D56" t="s">
         <v>56</v>
       </c>
       <c r="E56" t="s">
-        <v>147</v>
-      </c>
-      <c r="F56" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>137</v>
+      </c>
+      <c r="F56" t="s">
+        <v>137</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>44.224843203167097</v>
-      </c>
-      <c r="I56">
+        <v>94.485597889999994</v>
+      </c>
+      <c r="I56" s="4">
         <f t="shared" si="1"/>
-        <v>1.7360961857722394E-2</v>
+        <v>2.759802593944128E-2</v>
       </c>
       <c r="J56" s="3">
         <f t="shared" si="2"/>
-        <v>24.192594740285777</v>
+        <v>38.457999197078458</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>402.15922764874102</v>
+        <v>0</v>
       </c>
       <c r="B57">
-        <v>165.23789015008401</v>
+        <v>-11.061968909999999</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>-14.899071340000001</v>
       </c>
       <c r="D57" t="s">
         <v>57</v>
       </c>
       <c r="E57" t="s">
-        <v>147</v>
-      </c>
-      <c r="F57" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>137</v>
+      </c>
+      <c r="F57" t="s">
+        <v>137</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>402.15922764874102</v>
-      </c>
-      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
         <f t="shared" si="1"/>
-        <v>0.15787214846339789</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <f t="shared" si="2"/>
-        <v>219.99569723461616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>-155.68010759478901</v>
+        <v>107.0930159</v>
       </c>
       <c r="B58">
-        <v>-196.32081657389</v>
+        <v>108.5642035</v>
       </c>
       <c r="C58">
-        <v>-201.22635510517301</v>
+        <v>42.81138618</v>
       </c>
       <c r="D58" t="s">
         <v>58</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
-      </c>
-      <c r="F58" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>137</v>
+      </c>
+      <c r="F58" t="s">
+        <v>137</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>-155.68010759478901</v>
-      </c>
-      <c r="I58">
+        <v>107.0930159</v>
+      </c>
+      <c r="I58" s="4">
         <f t="shared" si="1"/>
-        <v>-6.1113985131454267E-2</v>
+        <v>3.1280490325965353E-2</v>
       </c>
       <c r="J58" s="3">
         <f t="shared" si="2"/>
-        <v>-85.162670557418679</v>
+        <v>43.589533341258623</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>457.22002230452398</v>
+        <v>37.356290749999999</v>
       </c>
       <c r="B59">
-        <v>179.36526403087501</v>
+        <v>31.416637519999998</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -5028,70 +6592,68 @@
         <v>59</v>
       </c>
       <c r="E59" t="s">
-        <v>147</v>
-      </c>
-      <c r="F59" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>129</v>
+      </c>
+      <c r="F59" t="s">
+        <v>129</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>457.22002230452398</v>
-      </c>
-      <c r="I59">
+        <v>37.356290749999999</v>
+      </c>
+      <c r="I59" s="4">
         <f t="shared" si="1"/>
-        <v>0.17948688548990424</v>
+        <v>1.0911291288224184E-2</v>
       </c>
       <c r="J59" s="3">
         <f t="shared" si="2"/>
-        <v>250.11595080037799</v>
+        <v>15.204943734831135</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>-198.05783318533301</v>
+        <v>-299.85608400000001</v>
       </c>
       <c r="B60">
-        <v>-227.882783418934</v>
+        <v>-296.12716440000003</v>
       </c>
       <c r="C60">
-        <v>-119.192635994169</v>
+        <v>-243.36068589999999</v>
       </c>
       <c r="D60" t="s">
         <v>60</v>
       </c>
       <c r="E60" t="s">
-        <v>147</v>
-      </c>
-      <c r="F60" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>129</v>
+      </c>
+      <c r="F60" t="s">
+        <v>129</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>-198.05783318533301</v>
-      </c>
-      <c r="I60">
+        <v>-299.85608400000001</v>
+      </c>
+      <c r="I60" s="4">
         <f t="shared" si="1"/>
-        <v>-7.7749840101354384E-2</v>
+        <v>-8.7584099260985093E-2</v>
       </c>
       <c r="J60" s="3">
         <f t="shared" si="2"/>
-        <v>-108.34482490711797</v>
+        <v>-122.04891851493041</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>-177.62235120534899</v>
+        <v>-101.78527699999999</v>
       </c>
       <c r="B61">
-        <v>-220.599602713389</v>
+        <v>-57.761442580000001</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -5100,178 +6662,173 @@
         <v>61</v>
       </c>
       <c r="E61" t="s">
-        <v>147</v>
-      </c>
-      <c r="F61" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>129</v>
+      </c>
+      <c r="F61" t="s">
+        <v>129</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>-177.62235120534899</v>
-      </c>
-      <c r="I61">
+        <v>-101.78527699999999</v>
+      </c>
+      <c r="I61" s="4">
         <f t="shared" si="1"/>
-        <v>-6.9727660767244973E-2</v>
+        <v>-2.973016816985732E-2</v>
       </c>
       <c r="J61" s="3">
         <f t="shared" si="2"/>
-        <v>-97.165874388447463</v>
+        <v>-41.429150987620517</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>-154.03375355596501</v>
+        <v>984.84392209999999</v>
       </c>
       <c r="B62">
-        <v>-141.26642602448899</v>
+        <v>956.4906833</v>
       </c>
       <c r="C62">
-        <v>-166.77236292376199</v>
+        <v>615.24976119999997</v>
       </c>
       <c r="D62" t="s">
         <v>62</v>
       </c>
       <c r="E62" t="s">
-        <v>148</v>
-      </c>
-      <c r="F62" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Other Promo</v>
+        <v>129</v>
+      </c>
+      <c r="F62" t="s">
+        <v>129</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>-154.03375355596501</v>
-      </c>
-      <c r="I62">
+        <v>984.84392209999999</v>
+      </c>
+      <c r="I62" s="4">
         <f t="shared" si="1"/>
-        <v>-6.0467690252781099E-2</v>
+        <v>0.28766022246119999</v>
       </c>
       <c r="J62" s="3">
         <f t="shared" si="2"/>
-        <v>-84.262055130082373</v>
+        <v>400.85608400831171</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>106.45333774736601</v>
+        <v>-146.09417160000001</v>
       </c>
       <c r="B63">
-        <v>75.380035599787306</v>
+        <v>-87.621603269999994</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>-6.7590175910000001</v>
       </c>
       <c r="D63" t="s">
         <v>63</v>
       </c>
       <c r="E63" t="s">
-        <v>149</v>
-      </c>
-      <c r="F63" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Other Promo</v>
+        <v>138</v>
+      </c>
+      <c r="F63" t="s">
+        <v>129</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>106.45333774736601</v>
-      </c>
-      <c r="I63">
+        <v>-146.09417160000001</v>
+      </c>
+      <c r="I63" s="4">
         <f t="shared" si="1"/>
-        <v>4.1789460457078778E-2</v>
+        <v>-4.2672225476224755E-2</v>
       </c>
       <c r="J63" s="3">
         <f t="shared" si="2"/>
-        <v>58.233840356235781</v>
+        <v>-59.46397821000911</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>-21.7316682035943</v>
+        <v>-67.559541580000001</v>
       </c>
       <c r="B64">
-        <v>-8.0412268085176102</v>
+        <v>-59.965355819999999</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>-10.84649821</v>
       </c>
       <c r="D64" t="s">
         <v>64</v>
       </c>
       <c r="E64" t="s">
-        <v>150</v>
-      </c>
-      <c r="F64" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>B3G3</v>
+        <v>138</v>
+      </c>
+      <c r="F64" t="s">
+        <v>129</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>-21.7316682035943</v>
-      </c>
-      <c r="I64">
+        <v>-67.559541580000001</v>
+      </c>
+      <c r="I64" s="4">
         <f t="shared" si="1"/>
-        <v>-8.53101188067662E-3</v>
+        <v>-1.9733271764362032E-2</v>
       </c>
       <c r="J64" s="3">
         <f t="shared" si="2"/>
-        <v>-11.888011438834466</v>
+        <v>-27.498421493437075</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>105.46912648222199</v>
+        <v>0</v>
       </c>
       <c r="B65">
-        <v>228.96331600880299</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>118.362947550469</v>
+        <v>0</v>
       </c>
       <c r="D65" t="s">
         <v>65</v>
       </c>
       <c r="E65" t="s">
-        <v>150</v>
-      </c>
-      <c r="F65" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>B3G3</v>
+        <v>138</v>
+      </c>
+      <c r="F65" t="s">
+        <v>129</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>105.46912648222199</v>
-      </c>
-      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="I65" s="4">
         <f t="shared" si="1"/>
-        <v>4.1403097205193196E-2</v>
+        <v>0</v>
       </c>
       <c r="J65" s="3">
         <f t="shared" si="2"/>
-        <v>57.695441064076221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>224.274983450311</v>
+        <v>-0.53123261300000002</v>
       </c>
       <c r="B66">
-        <v>44.900248645289302</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -5280,175 +6837,170 @@
         <v>66</v>
       </c>
       <c r="E66" t="s">
-        <v>150</v>
-      </c>
-      <c r="F66" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>B3G3</v>
+        <v>138</v>
+      </c>
+      <c r="F66" t="s">
+        <v>129</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66">
         <f t="shared" si="0"/>
-        <v>224.274983450311</v>
-      </c>
-      <c r="I66">
+        <v>-0.53123261300000002</v>
+      </c>
+      <c r="I66" s="4">
         <f t="shared" si="1"/>
-        <v>8.804167864281616E-2</v>
+        <v>-1.5516620268963589E-4</v>
       </c>
       <c r="J66" s="3">
         <f t="shared" si="2"/>
-        <v>122.68655787137111</v>
+        <v>-0.21622494708665166</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>-190.45338428380899</v>
+        <v>192.1693544</v>
       </c>
       <c r="B67">
-        <v>-81.755148894964407</v>
+        <v>174.2779654</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>64.134841109999996</v>
       </c>
       <c r="D67" t="s">
         <v>67</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
-      </c>
-      <c r="F67" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>B3G3</v>
+        <v>138</v>
+      </c>
+      <c r="F67" t="s">
+        <v>129</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
         <f t="shared" si="0"/>
-        <v>-190.45338428380899</v>
-      </c>
-      <c r="I67">
+        <v>192.1693544</v>
+      </c>
+      <c r="I67" s="4">
         <f t="shared" si="1"/>
-        <v>-7.4764627768958744E-2</v>
+        <v>5.6130192811725717E-2</v>
       </c>
       <c r="J67" s="3">
         <f t="shared" si="2"/>
-        <v>-104.1849152913252</v>
+        <v>78.217728862998101</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>-60.607516226816898</v>
+        <v>1025.172849</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1003.247112</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>846.72665510000002</v>
       </c>
       <c r="D68" t="s">
         <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
-      </c>
-      <c r="F68" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>B3G3</v>
+        <v>138</v>
+      </c>
+      <c r="F68" t="s">
+        <v>129</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
       <c r="H68">
         <f t="shared" si="0"/>
-        <v>-60.607516226816898</v>
-      </c>
-      <c r="I68">
+        <v>1025.172849</v>
+      </c>
+      <c r="I68" s="4">
         <f t="shared" si="1"/>
-        <v>-2.3792165246833641E-2</v>
+        <v>0.29943978247405806</v>
       </c>
       <c r="J68" s="3">
         <f t="shared" si="2"/>
-        <v>-33.154511629465127</v>
+        <v>417.27096493169722</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>73.690814839067002</v>
+        <v>576.63796530000002</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>490.41359260000002</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>301.67933849999997</v>
       </c>
       <c r="D69" t="s">
         <v>69</v>
       </c>
       <c r="E69" t="s">
-        <v>150</v>
-      </c>
-      <c r="F69" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>B3G3</v>
+        <v>138</v>
+      </c>
+      <c r="F69" t="s">
+        <v>129</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69">
         <f t="shared" si="0"/>
-        <v>73.690814839067002</v>
-      </c>
-      <c r="I69">
+        <v>576.63796530000002</v>
+      </c>
+      <c r="I69" s="4">
         <f t="shared" si="1"/>
-        <v>2.8928161933967179E-2</v>
+        <v>0.16842852116513227</v>
       </c>
       <c r="J69" s="3">
         <f t="shared" si="2"/>
-        <v>40.311550937399701</v>
+        <v>234.70605998948139</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>82.392157699304306</v>
+        <v>117.88721839999999</v>
       </c>
       <c r="B70">
-        <v>250.85320127854001</v>
+        <v>164.85815550000001</v>
       </c>
       <c r="C70">
-        <v>176.04018145870501</v>
+        <v>0</v>
       </c>
       <c r="D70" t="s">
         <v>70</v>
       </c>
       <c r="E70" t="s">
-        <v>151</v>
-      </c>
-      <c r="F70" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>CLX</v>
+        <v>139</v>
+      </c>
+      <c r="F70" t="s">
+        <v>133</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
       <c r="H70">
-        <f t="shared" ref="H70:H133" si="3">A70*G70</f>
-        <v>82.392157699304306</v>
-      </c>
-      <c r="I70">
-        <f t="shared" ref="I70:I133" si="4">H70/$H$2</f>
-        <v>3.2343972382713478E-2</v>
+        <f t="shared" ref="H70:H121" si="3">A70*G70</f>
+        <v>117.88721839999999</v>
+      </c>
+      <c r="I70" s="4">
+        <f t="shared" ref="I70:I121" si="4">H70/$H$3</f>
+        <v>3.4433337820642743E-2</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" ref="J70:J133" si="5">I70*$J$2</f>
-        <v>45.071501369489077</v>
+        <f t="shared" ref="J70:J121" si="5">I70*$J$3</f>
+        <v>47.983043467123395</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>-97.322599792722102</v>
+        <v>-3.6026667259999998</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -5460,31 +7012,30 @@
         <v>71</v>
       </c>
       <c r="E71" t="s">
-        <v>151</v>
-      </c>
-      <c r="F71" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>CLX</v>
+        <v>139</v>
+      </c>
+      <c r="F71" t="s">
+        <v>133</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
       <c r="H71">
         <f t="shared" si="3"/>
-        <v>-97.322599792722102</v>
-      </c>
-      <c r="I71">
+        <v>-3.6026667259999998</v>
+      </c>
+      <c r="I71" s="4">
         <f t="shared" si="4"/>
-        <v>-3.8205086112658743E-2</v>
+        <v>-1.0522925395578507E-3</v>
       </c>
       <c r="J71" s="3">
         <f t="shared" si="5"/>
-        <v>-53.238995219043154</v>
+        <v>-1.4663753751884026</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>0</v>
+        <v>20.489658259999999</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -5496,34 +7047,33 @@
         <v>72</v>
       </c>
       <c r="E72" t="s">
-        <v>151</v>
-      </c>
-      <c r="F72" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>CLX</v>
+        <v>139</v>
+      </c>
+      <c r="F72" t="s">
+        <v>133</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I72">
+        <v>20.489658259999999</v>
+      </c>
+      <c r="I72" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.9847652211302239E-3</v>
       </c>
       <c r="J72" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.3398028748134738</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>-18.8993958635754</v>
+        <v>73.501880209999996</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>4.7213814019999996</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -5532,70 +7082,68 @@
         <v>73</v>
       </c>
       <c r="E73" t="s">
-        <v>151</v>
-      </c>
-      <c r="F73" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>CLX</v>
+        <v>139</v>
+      </c>
+      <c r="F73" t="s">
+        <v>133</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
         <f t="shared" si="3"/>
-        <v>-18.8993958635754</v>
-      </c>
-      <c r="I73">
+        <v>73.501880209999996</v>
+      </c>
+      <c r="I73" s="4">
         <f t="shared" si="4"/>
-        <v>-7.4191713742024447E-3</v>
+        <v>2.1468952326415613E-2</v>
       </c>
       <c r="J73" s="3">
         <f t="shared" si="5"/>
-        <v>-10.338655647985869</v>
+        <v>29.917101793553957</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>89.060369115045802</v>
+        <v>-30.508710990000001</v>
       </c>
       <c r="B74">
-        <v>88.555426897944002</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>27.989414524437901</v>
+        <v>0</v>
       </c>
       <c r="D74" t="s">
         <v>74</v>
       </c>
       <c r="E74" t="s">
-        <v>151</v>
-      </c>
-      <c r="F74" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>CLX</v>
+        <v>139</v>
+      </c>
+      <c r="F74" t="s">
+        <v>133</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74">
         <f t="shared" si="3"/>
-        <v>89.060369115045802</v>
-      </c>
-      <c r="I74">
+        <v>-30.508710990000001</v>
+      </c>
+      <c r="I74" s="4">
         <f t="shared" si="4"/>
-        <v>3.4961654112326185E-2</v>
+        <v>-8.9112014538043089E-3</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" si="5"/>
-        <v>48.719255092039951</v>
+        <v>-12.41780767607861</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>36.765544986540803</v>
+        <v>-129.5691406</v>
       </c>
       <c r="B75">
-        <v>31.033985393255101</v>
+        <v>-89.313653279999997</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -5604,70 +7152,68 @@
         <v>75</v>
       </c>
       <c r="E75" t="s">
-        <v>152</v>
-      </c>
-      <c r="F75" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Base</v>
+        <v>139</v>
+      </c>
+      <c r="F75" t="s">
+        <v>133</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75">
         <f t="shared" si="3"/>
-        <v>36.765544986540803</v>
-      </c>
-      <c r="I75">
+        <v>-129.5691406</v>
+      </c>
+      <c r="I75" s="4">
         <f t="shared" si="4"/>
-        <v>1.4432730066615629E-2</v>
+        <v>-3.7845476803702052E-2</v>
       </c>
       <c r="J75" s="3">
         <f t="shared" si="5"/>
-        <v>20.112087818582253</v>
+        <v>-52.737877691816195</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>-299.778872178977</v>
+        <v>-186.63127900000001</v>
       </c>
       <c r="B76">
-        <v>-295.68138876418601</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>-242.44408752711701</v>
+        <v>0</v>
       </c>
       <c r="D76" t="s">
         <v>76</v>
       </c>
       <c r="E76" t="s">
-        <v>152</v>
-      </c>
-      <c r="F76" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Base</v>
+        <v>139</v>
+      </c>
+      <c r="F76" t="s">
+        <v>133</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
         <f t="shared" si="3"/>
-        <v>-299.778872178977</v>
-      </c>
-      <c r="I76">
+        <v>-186.63127900000001</v>
+      </c>
+      <c r="I76" s="4">
         <f t="shared" si="4"/>
-        <v>-0.11768158321650188</v>
+        <v>-5.4512592331261829E-2</v>
       </c>
       <c r="J76" s="3">
         <f t="shared" si="5"/>
-        <v>-163.98992604696332</v>
+        <v>-75.963593798577861</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>-101.746110607259</v>
+        <v>-122.3778647</v>
       </c>
       <c r="B77">
-        <v>-58.327086513961298</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -5676,139 +7222,135 @@
         <v>77</v>
       </c>
       <c r="E77" t="s">
-        <v>152</v>
-      </c>
-      <c r="F77" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Base</v>
+        <v>139</v>
+      </c>
+      <c r="F77" t="s">
+        <v>133</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77">
         <f t="shared" si="3"/>
-        <v>-101.746110607259</v>
-      </c>
-      <c r="I77">
+        <v>-122.3778647</v>
+      </c>
+      <c r="I77" s="4">
         <f t="shared" si="4"/>
-        <v>-3.9941585260334589E-2</v>
+        <v>-3.5744997754430102E-2</v>
       </c>
       <c r="J77" s="3">
         <f t="shared" si="5"/>
-        <v>-55.658816222675313</v>
+        <v>-49.810848716351138</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>984.58544777871703</v>
+        <v>64.347456519999994</v>
       </c>
       <c r="B78">
-        <v>955.296646371066</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>614.62533066702099</v>
+        <v>0</v>
       </c>
       <c r="D78" t="s">
         <v>78</v>
       </c>
       <c r="E78" t="s">
-        <v>152</v>
-      </c>
-      <c r="F78" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Base</v>
+        <v>139</v>
+      </c>
+      <c r="F78" t="s">
+        <v>133</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78">
         <f t="shared" si="3"/>
-        <v>984.58544777871703</v>
-      </c>
-      <c r="I78">
+        <v>64.347456519999994</v>
+      </c>
+      <c r="I78" s="4">
         <f t="shared" si="4"/>
-        <v>0.38651014150640817</v>
+        <v>1.8795063097801285E-2</v>
       </c>
       <c r="J78" s="3">
         <f t="shared" si="5"/>
-        <v>538.60398364481921</v>
+        <v>26.191022615544153</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>-137.66122105869599</v>
+        <v>-117.6534417</v>
       </c>
       <c r="B79">
-        <v>-86.580285332204497</v>
+        <v>-68.111321700000005</v>
       </c>
       <c r="C79">
-        <v>-6.5335913364209901</v>
+        <v>0</v>
       </c>
       <c r="D79" t="s">
         <v>79</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
-      </c>
-      <c r="F79" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Base</v>
+        <v>139</v>
+      </c>
+      <c r="F79" t="s">
+        <v>133</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79">
         <f t="shared" si="3"/>
-        <v>-137.66122105869599</v>
-      </c>
-      <c r="I79">
+        <v>-117.6534417</v>
+      </c>
+      <c r="I79" s="4">
         <f t="shared" si="4"/>
-        <v>-5.4040467641869677E-2</v>
+        <v>-3.4365054658185033E-2</v>
       </c>
       <c r="J79" s="3">
         <f t="shared" si="5"/>
-        <v>-75.305685476967966</v>
+        <v>-47.88789050898302</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>-64.108305349331005</v>
+        <v>-54.047473070000002</v>
       </c>
       <c r="B80">
-        <v>-57.538391654277099</v>
+        <v>-9.818699917</v>
       </c>
       <c r="C80">
-        <v>-10.8753415105498</v>
+        <v>0</v>
       </c>
       <c r="D80" t="s">
         <v>80</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
-      </c>
-      <c r="F80" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Base</v>
+        <v>139</v>
+      </c>
+      <c r="F80" t="s">
+        <v>133</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80">
         <f t="shared" si="3"/>
-        <v>-64.108305349331005</v>
-      </c>
-      <c r="I80">
+        <v>-54.047473070000002</v>
+      </c>
+      <c r="I80" s="4">
         <f t="shared" si="4"/>
-        <v>-2.516643956927023E-2</v>
+        <v>-1.5786570620885915E-2</v>
       </c>
       <c r="J80" s="3">
         <f t="shared" si="5"/>
-        <v>-35.069570369710007</v>
+        <v>-21.998671991788989</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>0</v>
+        <v>109.8768579</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -5820,31 +7362,30 @@
         <v>81</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
-      </c>
-      <c r="F81" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Base</v>
+        <v>139</v>
+      </c>
+      <c r="F81" t="s">
+        <v>133</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
       <c r="H81">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I81">
+        <v>109.8768579</v>
+      </c>
+      <c r="I81" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.2093614711511925E-2</v>
       </c>
       <c r="J81" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>44.722626593475056</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>0</v>
+        <v>1.4492197570000001</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -5856,142 +7397,138 @@
         <v>82</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
-      </c>
-      <c r="F82" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Base</v>
+        <v>139</v>
+      </c>
+      <c r="F82" t="s">
+        <v>133</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
       <c r="H82">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I82">
+        <v>1.4492197570000001</v>
+      </c>
+      <c r="I82" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.2329842154567956E-4</v>
       </c>
       <c r="J82" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.58986865189742244</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>192.03960284621701</v>
+        <v>-410.32110510000001</v>
       </c>
       <c r="B83">
-        <v>179.37317248253899</v>
+        <v>-128.48692199999999</v>
       </c>
       <c r="C83">
-        <v>66.251392022112</v>
+        <v>0</v>
       </c>
       <c r="D83" t="s">
         <v>83</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
-      </c>
-      <c r="F83" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Base</v>
+        <v>139</v>
+      </c>
+      <c r="F83" t="s">
+        <v>133</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83">
         <f t="shared" si="3"/>
-        <v>192.03960284621701</v>
-      </c>
-      <c r="I83">
+        <v>-410.32110510000001</v>
+      </c>
+      <c r="I83" s="4">
         <f t="shared" si="4"/>
-        <v>7.5387315786945991E-2</v>
+        <v>-0.11984950886624497</v>
       </c>
       <c r="J83" s="3">
         <f t="shared" si="5"/>
-        <v>105.05263442994517</v>
+        <v>-167.01094222689207</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>1028.3529112132501</v>
+        <v>333.51959799999997</v>
       </c>
       <c r="B84">
-        <v>1009.2731385673</v>
+        <v>289.91659199999998</v>
       </c>
       <c r="C84">
-        <v>848.33461816854106</v>
+        <v>0</v>
       </c>
       <c r="D84" t="s">
         <v>84</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
-      </c>
-      <c r="F84" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Base</v>
+        <v>139</v>
+      </c>
+      <c r="F84" t="s">
+        <v>133</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="H84">
         <f t="shared" si="3"/>
-        <v>1028.3529112132501</v>
-      </c>
-      <c r="I84">
+        <v>333.51959799999997</v>
+      </c>
+      <c r="I84" s="4">
         <f t="shared" si="4"/>
-        <v>0.4036915537684142</v>
+        <v>9.7416778032477225E-2</v>
       </c>
       <c r="J84" s="3">
         <f t="shared" si="5"/>
-        <v>562.54637504726304</v>
+        <v>135.75080984327917</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>578.90051672562004</v>
+        <v>-398.49439749999999</v>
       </c>
       <c r="B85">
-        <v>496.71211380412501</v>
+        <v>-93.351818199999997</v>
       </c>
       <c r="C85">
-        <v>304.94709029369801</v>
+        <v>0</v>
       </c>
       <c r="D85" t="s">
         <v>85</v>
       </c>
       <c r="E85" t="s">
-        <v>153</v>
-      </c>
-      <c r="F85" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Base</v>
+        <v>139</v>
+      </c>
+      <c r="F85" t="s">
+        <v>133</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
       <c r="H85">
         <f t="shared" si="3"/>
-        <v>578.90051672562004</v>
-      </c>
-      <c r="I85">
+        <v>-398.49439749999999</v>
+      </c>
+      <c r="I85" s="4">
         <f t="shared" si="4"/>
-        <v>0.2272539383377517</v>
+        <v>-0.11639507993303363</v>
       </c>
       <c r="J85" s="3">
         <f t="shared" si="5"/>
-        <v>316.67959865331977</v>
+        <v>-162.19717672673198</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>96.848750424455901</v>
+        <v>59.737853100000002</v>
       </c>
       <c r="B86">
-        <v>137.48081209814799</v>
+        <v>46.184877120000003</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -6000,34 +7537,33 @@
         <v>86</v>
       </c>
       <c r="E86" t="s">
-        <v>154</v>
-      </c>
-      <c r="F86" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F86" t="s">
+        <v>133</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86">
         <f t="shared" si="3"/>
-        <v>96.848750424455901</v>
-      </c>
-      <c r="I86">
+        <v>59.737853100000002</v>
+      </c>
+      <c r="I86" s="4">
         <f t="shared" si="4"/>
-        <v>3.8019071189530962E-2</v>
+        <v>1.7448657321718863E-2</v>
       </c>
       <c r="J86" s="3">
         <f t="shared" si="5"/>
-        <v>52.979782412301454</v>
+        <v>24.314798846165093</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>-20.5786819374384</v>
+        <v>0</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>6.0186536200000003</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -6036,26 +7572,25 @@
         <v>87</v>
       </c>
       <c r="E87" t="s">
-        <v>154</v>
-      </c>
-      <c r="F87" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F87" t="s">
+        <v>133</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
         <f t="shared" si="3"/>
-        <v>-20.5786819374384</v>
-      </c>
-      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="I87" s="4">
         <f t="shared" si="4"/>
-        <v>-8.0783940953008011E-3</v>
+        <v>0</v>
       </c>
       <c r="J87" s="3">
         <f t="shared" si="5"/>
-        <v>-11.257286094030363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -6072,11 +7607,10 @@
         <v>88</v>
       </c>
       <c r="E88" t="s">
-        <v>154</v>
-      </c>
-      <c r="F88" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F88" t="s">
+        <v>133</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -6085,7 +7619,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6096,10 +7630,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>54.943151086202498</v>
+        <v>-7.6539598619999998</v>
       </c>
       <c r="B89">
-        <v>0.190781794574653</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -6108,31 +7642,30 @@
         <v>89</v>
       </c>
       <c r="E89" t="s">
-        <v>154</v>
-      </c>
-      <c r="F89" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F89" t="s">
+        <v>133</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89">
         <f t="shared" si="3"/>
-        <v>54.943151086202498</v>
-      </c>
-      <c r="I89">
+        <v>-7.6539598619999998</v>
+      </c>
+      <c r="I89" s="4">
         <f t="shared" si="4"/>
-        <v>2.1568554714114407E-2</v>
+        <v>-2.235623074077776E-3</v>
       </c>
       <c r="J89" s="3">
         <f t="shared" si="5"/>
-        <v>30.055898262350407</v>
+        <v>-3.1153529088100345</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>-48.3036628363744</v>
+        <v>-71.669286929999998</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -6144,34 +7677,33 @@
         <v>90</v>
       </c>
       <c r="E90" t="s">
-        <v>154</v>
-      </c>
-      <c r="F90" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F90" t="s">
+        <v>133</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
       <c r="H90">
         <f t="shared" si="3"/>
-        <v>-48.3036628363744</v>
-      </c>
-      <c r="I90">
+        <v>-71.669286929999998</v>
+      </c>
+      <c r="I90" s="4">
         <f t="shared" si="4"/>
-        <v>-1.8962148587799259E-2</v>
+        <v>-2.0933675437584724E-2</v>
       </c>
       <c r="J90" s="3">
         <f t="shared" si="5"/>
-        <v>-26.423857154300141</v>
+        <v>-29.171190538667666</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>-117.313080161173</v>
+        <v>0</v>
       </c>
       <c r="B91">
-        <v>-95.065849814824603</v>
+        <v>161.46955550000001</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -6180,34 +7712,33 @@
         <v>91</v>
       </c>
       <c r="E91" t="s">
-        <v>154</v>
-      </c>
-      <c r="F91" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F91" t="s">
+        <v>133</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91">
         <f t="shared" si="3"/>
-        <v>-117.313080161173</v>
-      </c>
-      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="I91" s="4">
         <f t="shared" si="4"/>
-        <v>-4.6052575036471831E-2</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <f t="shared" si="5"/>
-        <v>-64.174513701173964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>-205.440031296131</v>
+        <v>34.294609180000002</v>
       </c>
       <c r="B92">
-        <v>-8.4456059422526497</v>
+        <v>17.81008018</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -6216,34 +7747,33 @@
         <v>92</v>
       </c>
       <c r="E92" t="s">
-        <v>154</v>
-      </c>
-      <c r="F92" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F92" t="s">
+        <v>133</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="H92">
         <f t="shared" si="3"/>
-        <v>-205.440031296131</v>
-      </c>
-      <c r="I92">
+        <v>34.294609180000002</v>
+      </c>
+      <c r="I92" s="4">
         <f t="shared" si="4"/>
-        <v>-8.0647805374830711E-2</v>
+        <v>1.0017013543529804E-2</v>
       </c>
       <c r="J92" s="3">
         <f t="shared" si="5"/>
-        <v>-112.38315527194442</v>
+        <v>13.958762835411418</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>-128.801523877422</v>
+        <v>-77.564510619999993</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>-69.260498740000003</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -6252,31 +7782,30 @@
         <v>93</v>
       </c>
       <c r="E93" t="s">
-        <v>154</v>
-      </c>
-      <c r="F93" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F93" t="s">
+        <v>133</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93">
         <f t="shared" si="3"/>
-        <v>-128.801523877422</v>
-      </c>
-      <c r="I93">
+        <v>-77.564510619999993</v>
+      </c>
+      <c r="I93" s="4">
         <f t="shared" si="4"/>
-        <v>-5.0562493415291683E-2</v>
+        <v>-2.2655594332619284E-2</v>
       </c>
       <c r="J93" s="3">
         <f t="shared" si="5"/>
-        <v>-70.459109482485658</v>
+        <v>-31.570693880971358</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>40.538371890560803</v>
+        <v>54.801860529999999</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -6288,34 +7817,33 @@
         <v>94</v>
       </c>
       <c r="E94" t="s">
-        <v>154</v>
-      </c>
-      <c r="F94" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F94" t="s">
+        <v>133</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="H94">
         <f t="shared" si="3"/>
-        <v>40.538371890560803</v>
-      </c>
-      <c r="I94">
+        <v>54.801860529999999</v>
+      </c>
+      <c r="I94" s="4">
         <f t="shared" si="4"/>
-        <v>1.591379589370237E-2</v>
+        <v>1.6006917479607256E-2</v>
       </c>
       <c r="J94" s="3">
         <f t="shared" si="5"/>
-        <v>22.175961101182526</v>
+        <v>22.305726537443046</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>-141.85547681670201</v>
+        <v>210.0068704</v>
       </c>
       <c r="B95">
-        <v>-63.5913618926335</v>
+        <v>7.5483298349999997</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -6324,34 +7852,33 @@
         <v>95</v>
       </c>
       <c r="E95" t="s">
-        <v>154</v>
-      </c>
-      <c r="F95" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F95" t="s">
+        <v>133</v>
       </c>
       <c r="G95">
         <v>1</v>
       </c>
       <c r="H95">
         <f t="shared" si="3"/>
-        <v>-141.85547681670201</v>
-      </c>
-      <c r="I95">
+        <v>210.0068704</v>
+      </c>
+      <c r="I95" s="4">
         <f t="shared" si="4"/>
-        <v>-5.5686970126949384E-2</v>
+        <v>6.1340301444750514E-2</v>
       </c>
       <c r="J95" s="3">
         <f t="shared" si="5"/>
-        <v>-77.60009564196055</v>
+        <v>85.478043570478803</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>-74.562923447519907</v>
+        <v>146.76724110000001</v>
       </c>
       <c r="B96">
-        <v>-5.0922916015614703</v>
+        <v>0</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -6360,31 +7887,30 @@
         <v>96</v>
       </c>
       <c r="E96" t="s">
-        <v>154</v>
-      </c>
-      <c r="F96" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F96" t="s">
+        <v>133</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96">
         <f t="shared" si="3"/>
-        <v>-74.562923447519907</v>
-      </c>
-      <c r="I96">
+        <v>146.76724110000001</v>
+      </c>
+      <c r="I96" s="4">
         <f t="shared" si="4"/>
-        <v>-2.9270518021417547E-2</v>
+        <v>4.2868820406403135E-2</v>
       </c>
       <c r="J96" s="3">
         <f t="shared" si="5"/>
-        <v>-40.788626006651832</v>
+        <v>59.73793431409932</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>86.640968732240196</v>
+        <v>188.46541049999999</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -6396,34 +7922,33 @@
         <v>97</v>
       </c>
       <c r="E97" t="s">
-        <v>154</v>
-      </c>
-      <c r="F97" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F97" t="s">
+        <v>133</v>
       </c>
       <c r="G97">
         <v>1</v>
       </c>
       <c r="H97">
         <f t="shared" si="3"/>
-        <v>86.640968732240196</v>
-      </c>
-      <c r="I97">
+        <v>188.46541049999999</v>
+      </c>
+      <c r="I97" s="4">
         <f t="shared" si="4"/>
-        <v>3.4011891157339852E-2</v>
+        <v>5.5048318514338702E-2</v>
       </c>
       <c r="J97" s="3">
         <f t="shared" si="5"/>
-        <v>47.395755250405308</v>
+        <v>76.710131147438744</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>-14.3396660662084</v>
+        <v>112.99245430000001</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>12.12842367</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -6432,34 +7957,33 @@
         <v>98</v>
       </c>
       <c r="E98" t="s">
-        <v>154</v>
-      </c>
-      <c r="F98" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F98" t="s">
+        <v>133</v>
       </c>
       <c r="G98">
         <v>1</v>
       </c>
       <c r="H98">
         <f t="shared" si="3"/>
-        <v>-14.3396660662084</v>
-      </c>
-      <c r="I98">
+        <v>112.99245430000001</v>
+      </c>
+      <c r="I98" s="4">
         <f t="shared" si="4"/>
-        <v>-5.6291979257959684E-3</v>
+        <v>3.3003640283495207E-2</v>
       </c>
       <c r="J98" s="3">
         <f t="shared" si="5"/>
-        <v>-7.8443179155458047</v>
+        <v>45.990752175842793</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>-417.27612055822499</v>
+        <v>436.19532609999999</v>
       </c>
       <c r="B99">
-        <v>-128.39930456386199</v>
+        <v>366.42392389999998</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -6468,34 +7992,33 @@
         <v>99</v>
       </c>
       <c r="E99" t="s">
-        <v>154</v>
-      </c>
-      <c r="F99" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F99" t="s">
+        <v>133</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99">
         <f t="shared" si="3"/>
-        <v>-417.27612055822499</v>
-      </c>
-      <c r="I99">
+        <v>436.19532609999999</v>
+      </c>
+      <c r="I99" s="4">
         <f t="shared" si="4"/>
-        <v>-0.16380645556773674</v>
+        <v>0.12740703549746937</v>
       </c>
       <c r="J99" s="3">
         <f t="shared" si="5"/>
-        <v>-228.26518644934006</v>
+        <v>177.54239667777557</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>310.768626981316</v>
+        <v>195.9290436</v>
       </c>
       <c r="B100">
-        <v>271.85067596430298</v>
+        <v>152.9918481</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -6504,34 +8027,33 @@
         <v>100</v>
       </c>
       <c r="E100" t="s">
-        <v>154</v>
-      </c>
-      <c r="F100" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F100" t="s">
+        <v>133</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100">
         <f t="shared" si="3"/>
-        <v>310.768626981316</v>
-      </c>
-      <c r="I100">
+        <v>195.9290436</v>
+      </c>
+      <c r="I100" s="4">
         <f t="shared" si="4"/>
-        <v>0.1219957356279109</v>
+        <v>5.7228349593107727E-2</v>
       </c>
       <c r="J100" s="3">
         <f t="shared" si="5"/>
-        <v>170.00172088830845</v>
+        <v>79.748016308532357</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>-460.71777974122398</v>
+        <v>-33.292483490000002</v>
       </c>
       <c r="B101">
-        <v>-89.828568221369295</v>
+        <v>0</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -6540,34 +8062,33 @@
         <v>101</v>
       </c>
       <c r="E101" t="s">
-        <v>154</v>
-      </c>
-      <c r="F101" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F101" t="s">
+        <v>133</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101">
         <f t="shared" si="3"/>
-        <v>-460.71777974122398</v>
-      </c>
-      <c r="I101">
+        <v>-33.292483490000002</v>
+      </c>
+      <c r="I101" s="4">
         <f t="shared" si="4"/>
-        <v>-0.1808599696898221</v>
+        <v>-9.724305539296204E-3</v>
       </c>
       <c r="J101" s="3">
         <f t="shared" si="5"/>
-        <v>-252.0293510984223</v>
+        <v>-13.550872640058477</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>33.375312383232298</v>
+        <v>-52.829116419999998</v>
       </c>
       <c r="B102">
-        <v>57.755188423244697</v>
+        <v>-13.26815107</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -6576,34 +8097,33 @@
         <v>102</v>
       </c>
       <c r="E102" t="s">
-        <v>154</v>
-      </c>
-      <c r="F102" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F102" t="s">
+        <v>133</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102">
         <f t="shared" si="3"/>
-        <v>33.375312383232298</v>
-      </c>
-      <c r="I102">
+        <v>-52.829116419999998</v>
+      </c>
+      <c r="I102" s="4">
         <f t="shared" si="4"/>
-        <v>1.3101855954875855E-2</v>
+        <v>-1.5430704338816808E-2</v>
       </c>
       <c r="J102" s="3">
         <f t="shared" si="5"/>
-        <v>18.257507507910329</v>
+        <v>-21.502770392880713</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>-24.5081824348458</v>
+        <v>-75.206415239999998</v>
       </c>
       <c r="B103">
-        <v>11.188968411340699</v>
+        <v>-28.037396099999999</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -6612,31 +8132,30 @@
         <v>103</v>
       </c>
       <c r="E103" t="s">
-        <v>154</v>
-      </c>
-      <c r="F103" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F103" t="s">
+        <v>133</v>
       </c>
       <c r="G103">
         <v>1</v>
       </c>
       <c r="H103">
         <f t="shared" si="3"/>
-        <v>-24.5081824348458</v>
-      </c>
-      <c r="I103">
+        <v>-75.206415239999998</v>
+      </c>
+      <c r="I103" s="4">
         <f t="shared" si="4"/>
-        <v>-9.6209639115914219E-3</v>
+        <v>-2.196682505012312E-2</v>
       </c>
       <c r="J103" s="3">
         <f t="shared" si="5"/>
-        <v>-13.406865519983434</v>
+        <v>-30.610890140974366</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>-23.320639354247501</v>
+        <v>-9.8012408690000008</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -6648,34 +8167,33 @@
         <v>104</v>
       </c>
       <c r="E104" t="s">
-        <v>154</v>
-      </c>
-      <c r="F104" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F104" t="s">
+        <v>133</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104">
         <f t="shared" si="3"/>
-        <v>-23.320639354247501</v>
-      </c>
-      <c r="I104">
+        <v>-9.8012408690000008</v>
+      </c>
+      <c r="I104" s="4">
         <f t="shared" si="4"/>
-        <v>-9.1547804582786298E-3</v>
+        <v>-2.8628161940223293E-3</v>
       </c>
       <c r="J104" s="3">
         <f t="shared" si="5"/>
-        <v>-12.757236343152623</v>
+        <v>-3.9893499315017626</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>-33.441948468940502</v>
+        <v>-88.886605549999999</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>-26.302797699999999</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -6684,34 +8202,33 @@
         <v>105</v>
       </c>
       <c r="E105" t="s">
-        <v>154</v>
-      </c>
-      <c r="F105" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F105" t="s">
+        <v>133</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
         <f t="shared" si="3"/>
-        <v>-33.441948468940502</v>
-      </c>
-      <c r="I105">
+        <v>-88.886605549999999</v>
+      </c>
+      <c r="I105" s="4">
         <f t="shared" si="4"/>
-        <v>-1.3128014703184207E-2</v>
+        <v>-2.5962632405561691E-2</v>
       </c>
       <c r="J105" s="3">
         <f t="shared" si="5"/>
-        <v>-18.293959865903133</v>
+        <v>-36.179069415982603</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>-104.28976451668299</v>
+        <v>134.1738545</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>19.224443610000002</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -6720,34 +8237,33 @@
         <v>106</v>
       </c>
       <c r="E106" t="s">
-        <v>154</v>
-      </c>
-      <c r="F106" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F106" t="s">
+        <v>133</v>
       </c>
       <c r="G106">
         <v>1</v>
       </c>
       <c r="H106">
         <f t="shared" si="3"/>
-        <v>-104.28976451668299</v>
-      </c>
-      <c r="I106">
+        <v>134.1738545</v>
+      </c>
+      <c r="I106" s="4">
         <f t="shared" si="4"/>
-        <v>-4.0940125341028283E-2</v>
+        <v>3.9190454413981383E-2</v>
       </c>
       <c r="J106" s="3">
         <f t="shared" si="5"/>
-        <v>-57.05028725418439</v>
+        <v>54.61211130438371</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>-19.096946853374</v>
+        <v>0</v>
       </c>
       <c r="B107">
-        <v>150.21993714310599</v>
+        <v>-5.0363204039999996</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -6756,34 +8272,33 @@
         <v>107</v>
       </c>
       <c r="E107" t="s">
-        <v>154</v>
-      </c>
-      <c r="F107" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F107" t="s">
+        <v>133</v>
       </c>
       <c r="G107">
         <v>1</v>
       </c>
       <c r="H107">
         <f t="shared" si="3"/>
-        <v>-19.096946853374</v>
-      </c>
-      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="I107" s="4">
         <f t="shared" si="4"/>
-        <v>-7.496722247205951E-3</v>
+        <v>0</v>
       </c>
       <c r="J107" s="3">
         <f t="shared" si="5"/>
-        <v>-10.44672321116035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>8.01404543029156</v>
+        <v>35.398979140000002</v>
       </c>
       <c r="B108">
-        <v>13.7947398940147</v>
+        <v>0</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -6792,34 +8307,33 @@
         <v>108</v>
       </c>
       <c r="E108" t="s">
-        <v>154</v>
-      </c>
-      <c r="F108" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F108" t="s">
+        <v>133</v>
       </c>
       <c r="G108">
         <v>1</v>
       </c>
       <c r="H108">
         <f t="shared" si="3"/>
-        <v>8.01404543029156</v>
-      </c>
-      <c r="I108">
+        <v>35.398979140000002</v>
+      </c>
+      <c r="I108" s="4">
         <f t="shared" si="4"/>
-        <v>3.1460040774408562E-3</v>
+        <v>1.0339585781875618E-2</v>
       </c>
       <c r="J108" s="3">
         <f t="shared" si="5"/>
-        <v>4.383973786738002</v>
+        <v>14.40826900337157</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>-146.79316517990401</v>
+        <v>-85.061189319999997</v>
       </c>
       <c r="B109">
-        <v>-58.522348483653602</v>
+        <v>-30.058416659999999</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -6828,34 +8342,33 @@
         <v>109</v>
       </c>
       <c r="E109" t="s">
-        <v>154</v>
-      </c>
-      <c r="F109" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F109" t="s">
+        <v>133</v>
       </c>
       <c r="G109">
         <v>1</v>
       </c>
       <c r="H109">
         <f t="shared" si="3"/>
-        <v>-146.79316517990401</v>
-      </c>
-      <c r="I109">
+        <v>-85.061189319999997</v>
+      </c>
+      <c r="I109" s="4">
         <f t="shared" si="4"/>
-        <v>-5.7625315480601895E-2</v>
+        <v>-2.4845277605440631E-2</v>
       </c>
       <c r="J109" s="3">
         <f t="shared" si="5"/>
-        <v>-80.301190431059013</v>
+        <v>-34.622029426955862</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>-40.561618396794003</v>
+        <v>-164.20699980000001</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>-91.094120790000005</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -6864,34 +8377,33 @@
         <v>110</v>
       </c>
       <c r="E110" t="s">
-        <v>154</v>
-      </c>
-      <c r="F110" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F110" t="s">
+        <v>133</v>
       </c>
       <c r="G110">
         <v>1</v>
       </c>
       <c r="H110">
         <f t="shared" si="3"/>
-        <v>-40.561618396794003</v>
-      </c>
-      <c r="I110">
+        <v>-164.20699980000001</v>
+      </c>
+      <c r="I110" s="4">
         <f t="shared" si="4"/>
-        <v>-1.5922921572366414E-2</v>
+        <v>-4.7962749256179042E-2</v>
       </c>
       <c r="J110" s="3">
         <f t="shared" si="5"/>
-        <v>-22.188677784017187</v>
+        <v>-66.836351861953204</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>132.58480848482199</v>
+        <v>-833.72380180000005</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>-561.47488109999995</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -6900,31 +8412,30 @@
         <v>111</v>
       </c>
       <c r="E111" t="s">
-        <v>154</v>
-      </c>
-      <c r="F111" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F111" t="s">
+        <v>133</v>
       </c>
       <c r="G111">
         <v>1</v>
       </c>
       <c r="H111">
         <f t="shared" si="3"/>
-        <v>132.58480848482199</v>
-      </c>
-      <c r="I111">
+        <v>-833.72380180000005</v>
+      </c>
+      <c r="I111" s="4">
         <f t="shared" si="4"/>
-        <v>5.2047664531992797E-2</v>
+        <v>-0.24351998211614431</v>
       </c>
       <c r="J111" s="3">
         <f t="shared" si="5"/>
-        <v>72.528703508484028</v>
+        <v>-339.34641909698985</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>56.800571654343699</v>
+        <v>-98.466292159999995</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -6936,34 +8447,33 @@
         <v>112</v>
       </c>
       <c r="E112" t="s">
-        <v>154</v>
-      </c>
-      <c r="F112" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F112" t="s">
+        <v>133</v>
       </c>
       <c r="G112">
         <v>1</v>
       </c>
       <c r="H112">
         <f t="shared" si="3"/>
-        <v>56.800571654343699</v>
-      </c>
-      <c r="I112">
+        <v>-98.466292159999995</v>
+      </c>
+      <c r="I112" s="4">
         <f t="shared" si="4"/>
-        <v>2.2297706143529519E-2</v>
+        <v>-2.8760735454687648E-2</v>
       </c>
       <c r="J112" s="3">
         <f t="shared" si="5"/>
-        <v>31.071974743636687</v>
+        <v>-40.078241228225906</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>103.267213614422</v>
+        <v>-315.89532759999997</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>-270.4490864</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -6972,34 +8482,33 @@
         <v>113</v>
       </c>
       <c r="E113" t="s">
-        <v>154</v>
-      </c>
-      <c r="F113" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F113" t="s">
+        <v>133</v>
       </c>
       <c r="G113">
         <v>1</v>
       </c>
       <c r="H113">
         <f t="shared" si="3"/>
-        <v>103.267213614422</v>
-      </c>
-      <c r="I113">
+        <v>-315.89532759999997</v>
+      </c>
+      <c r="I113" s="4">
         <f t="shared" si="4"/>
-        <v>4.0538711431425969E-2</v>
+        <v>-9.2268955692090621E-2</v>
       </c>
       <c r="J113" s="3">
         <f t="shared" si="5"/>
-        <v>56.490914788666146</v>
+        <v>-128.57729142324038</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>12.993327675306601</v>
+        <v>-265.33898950000003</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>-267.00031890000002</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -7008,34 +8517,33 @@
         <v>114</v>
       </c>
       <c r="E114" t="s">
-        <v>154</v>
-      </c>
-      <c r="F114" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F114" t="s">
+        <v>133</v>
       </c>
       <c r="G114">
         <v>1</v>
       </c>
       <c r="H114">
         <f t="shared" si="3"/>
-        <v>12.993327675306601</v>
-      </c>
-      <c r="I114">
+        <v>-265.33898950000003</v>
+      </c>
+      <c r="I114" s="4">
         <f t="shared" si="4"/>
-        <v>5.1006775793324306E-3</v>
+        <v>-7.750210062163515E-2</v>
       </c>
       <c r="J114" s="3">
         <f t="shared" si="5"/>
-        <v>7.1078219391837409</v>
+        <v>-107.99959859516966</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>385.70163221300498</v>
+        <v>-148.8260076</v>
       </c>
       <c r="B115">
-        <v>326.76984220674598</v>
+        <v>-164.27951440000001</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -7044,34 +8552,33 @@
         <v>115</v>
       </c>
       <c r="E115" t="s">
-        <v>154</v>
-      </c>
-      <c r="F115" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F115" t="s">
+        <v>133</v>
       </c>
       <c r="G115">
         <v>1</v>
       </c>
       <c r="H115">
         <f t="shared" si="3"/>
-        <v>385.70163221300498</v>
-      </c>
-      <c r="I115">
+        <v>-148.8260076</v>
+      </c>
+      <c r="I115" s="4">
         <f t="shared" si="4"/>
-        <v>0.15141153343493854</v>
+        <v>-4.347015957913504E-2</v>
       </c>
       <c r="J115" s="3">
         <f t="shared" si="5"/>
-        <v>210.99279506609415</v>
+        <v>-60.575903720782314</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>250.796709581871</v>
+        <v>0</v>
       </c>
       <c r="B116">
-        <v>134.77614546811901</v>
+        <v>0</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -7080,34 +8587,33 @@
         <v>116</v>
       </c>
       <c r="E116" t="s">
-        <v>154</v>
-      </c>
-      <c r="F116" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F116" t="s">
+        <v>133</v>
       </c>
       <c r="G116">
         <v>1</v>
       </c>
       <c r="H116">
         <f t="shared" si="3"/>
-        <v>250.796709581871</v>
-      </c>
-      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="I116" s="4">
         <f t="shared" si="4"/>
-        <v>9.8453081881844456E-2</v>
+        <v>0</v>
       </c>
       <c r="J116" s="3">
         <f t="shared" si="5"/>
-        <v>137.19490489175644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>99.5586374500636</v>
+        <v>193.50800889999999</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>60.77223927</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -7116,31 +8622,30 @@
         <v>117</v>
       </c>
       <c r="E117" t="s">
-        <v>154</v>
-      </c>
-      <c r="F117" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F117" t="s">
+        <v>133</v>
       </c>
       <c r="G117">
         <v>1</v>
       </c>
       <c r="H117">
         <f t="shared" si="3"/>
-        <v>99.5586374500636</v>
-      </c>
-      <c r="I117">
+        <v>193.50800889999999</v>
+      </c>
+      <c r="I117" s="4">
         <f t="shared" si="4"/>
-        <v>3.9082867958107018E-2</v>
+        <v>5.6521196546051027E-2</v>
       </c>
       <c r="J117" s="3">
         <f t="shared" si="5"/>
-        <v>54.462188993175218</v>
+        <v>78.762594692667733</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>39.382106768214101</v>
+        <v>146.636358</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -7152,34 +8657,33 @@
         <v>118</v>
       </c>
       <c r="E118" t="s">
-        <v>154</v>
-      </c>
-      <c r="F118" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F118" t="s">
+        <v>133</v>
       </c>
       <c r="G118">
         <v>1</v>
       </c>
       <c r="H118">
         <f t="shared" si="3"/>
-        <v>39.382106768214101</v>
-      </c>
-      <c r="I118">
+        <v>146.636358</v>
+      </c>
+      <c r="I118" s="4">
         <f t="shared" si="4"/>
-        <v>1.5459890956283886E-2</v>
+        <v>4.2830591138985678E-2</v>
       </c>
       <c r="J118" s="3">
         <f t="shared" si="5"/>
-        <v>21.543442103008726</v>
+        <v>59.684661622100563</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>-92.657463077857997</v>
+        <v>462.65696680000002</v>
       </c>
       <c r="B119">
-        <v>-53.887057320218801</v>
+        <v>285.21537710000001</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -7188,678 +8692,98 @@
         <v>119</v>
       </c>
       <c r="E119" t="s">
-        <v>154</v>
-      </c>
-      <c r="F119" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F119" t="s">
+        <v>133</v>
       </c>
       <c r="G119">
         <v>1</v>
       </c>
       <c r="H119">
         <f t="shared" si="3"/>
-        <v>-92.657463077857997</v>
-      </c>
-      <c r="I119">
+        <v>462.65696680000002</v>
+      </c>
+      <c r="I119" s="4">
         <f t="shared" si="4"/>
-        <v>-3.6373733987887027E-2</v>
+        <v>0.13513613985566986</v>
       </c>
       <c r="J119" s="3">
         <f t="shared" si="5"/>
-        <v>-50.686996076112266</v>
+        <v>188.31294562406833</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>94.703590773270605</v>
+        <v>1295.100623</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1084.749053</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>405.58497670000003</v>
       </c>
       <c r="D120" t="s">
         <v>120</v>
       </c>
       <c r="E120" t="s">
-        <v>154</v>
-      </c>
-      <c r="F120" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F120" t="s">
+        <v>133</v>
       </c>
       <c r="G120">
         <v>1</v>
       </c>
       <c r="H120">
         <f t="shared" si="3"/>
-        <v>94.703590773270605</v>
-      </c>
-      <c r="I120">
+        <v>1295.100623</v>
+      </c>
+      <c r="I120" s="4">
         <f t="shared" si="4"/>
-        <v>3.7176964532151427E-2</v>
+        <v>0.37828220793344197</v>
       </c>
       <c r="J120" s="3">
         <f t="shared" si="5"/>
-        <v>51.806302206709177</v>
+        <v>527.13831347561597</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>3.4256991976934801</v>
+        <v>1099.5451860000001</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>721.34476949999998</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>81.268530429999998</v>
       </c>
       <c r="D121" t="s">
         <v>121</v>
       </c>
       <c r="E121" t="s">
-        <v>154</v>
-      </c>
-      <c r="F121" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
+        <v>139</v>
+      </c>
+      <c r="F121" t="s">
+        <v>133</v>
       </c>
       <c r="G121">
         <v>1</v>
       </c>
       <c r="H121">
         <f t="shared" si="3"/>
-        <v>3.4256991976934801</v>
-      </c>
-      <c r="I121">
+        <v>1099.5451860000001</v>
+      </c>
+      <c r="I121" s="4">
         <f t="shared" si="4"/>
-        <v>1.3447969240720249E-3</v>
+        <v>0.32116298401523286</v>
       </c>
       <c r="J121" s="3">
         <f t="shared" si="5"/>
-        <v>1.8739818253552429</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>268.11062048722101</v>
-      </c>
-      <c r="B122">
-        <v>71.727053724056006</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122" t="s">
-        <v>122</v>
-      </c>
-      <c r="E122" t="s">
-        <v>154</v>
-      </c>
-      <c r="F122" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
-      </c>
-      <c r="G122">
-        <v>1</v>
-      </c>
-      <c r="H122">
-        <f t="shared" si="3"/>
-        <v>268.11062048722101</v>
-      </c>
-      <c r="I122">
-        <f t="shared" si="4"/>
-        <v>0.10524985322266991</v>
-      </c>
-      <c r="J122" s="3">
-        <f t="shared" si="5"/>
-        <v>146.66624270924251</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>13.0756124364404</v>
-      </c>
-      <c r="B123">
-        <v>-8.7526561851953595</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123" t="s">
-        <v>123</v>
-      </c>
-      <c r="E123" t="s">
-        <v>154</v>
-      </c>
-      <c r="F123" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
-      </c>
-      <c r="G123">
-        <v>1</v>
-      </c>
-      <c r="H123">
-        <f t="shared" si="3"/>
-        <v>13.0756124364404</v>
-      </c>
-      <c r="I123">
-        <f t="shared" si="4"/>
-        <v>5.1329793919799747E-3</v>
-      </c>
-      <c r="J123" s="3">
-        <f t="shared" si="5"/>
-        <v>7.1528346907330489</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>0</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124" t="s">
-        <v>124</v>
-      </c>
-      <c r="E124" t="s">
-        <v>154</v>
-      </c>
-      <c r="F124" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
-      </c>
-      <c r="G124">
-        <v>1</v>
-      </c>
-      <c r="H124">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>-103.68162603985201</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125" t="s">
-        <v>125</v>
-      </c>
-      <c r="E125" t="s">
-        <v>154</v>
-      </c>
-      <c r="F125" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
-      </c>
-      <c r="G125">
-        <v>1</v>
-      </c>
-      <c r="H125">
-        <f t="shared" si="3"/>
-        <v>-103.68162603985201</v>
-      </c>
-      <c r="I125">
-        <f t="shared" si="4"/>
-        <v>-4.0701393711116703E-2</v>
-      </c>
-      <c r="J125" s="3">
-        <f t="shared" si="5"/>
-        <v>-56.717613429918735</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>-127.15059821958501</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126" t="s">
-        <v>126</v>
-      </c>
-      <c r="E126" t="s">
-        <v>154</v>
-      </c>
-      <c r="F126" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
-      </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
-      <c r="H126">
-        <f t="shared" si="3"/>
-        <v>-127.15059821958501</v>
-      </c>
-      <c r="I126">
-        <f t="shared" si="4"/>
-        <v>-4.9914403895924185E-2</v>
-      </c>
-      <c r="J126" s="3">
-        <f t="shared" si="5"/>
-        <v>-69.55599321358433</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>-822.490107055566</v>
-      </c>
-      <c r="B127">
-        <v>-609.79832466976495</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127" t="s">
-        <v>127</v>
-      </c>
-      <c r="E127" t="s">
-        <v>154</v>
-      </c>
-      <c r="F127" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="H127">
-        <f t="shared" si="3"/>
-        <v>-822.490107055566</v>
-      </c>
-      <c r="I127">
-        <f t="shared" si="4"/>
-        <v>-0.32287778413023527</v>
-      </c>
-      <c r="J127" s="3">
-        <f t="shared" si="5"/>
-        <v>-449.93194767199515</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>-104.72514156954399</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128" t="s">
-        <v>128</v>
-      </c>
-      <c r="E128" t="s">
-        <v>154</v>
-      </c>
-      <c r="F128" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
-      <c r="H128">
-        <f t="shared" si="3"/>
-        <v>-104.72514156954399</v>
-      </c>
-      <c r="I128">
-        <f t="shared" si="4"/>
-        <v>-4.1111037522078279E-2</v>
-      </c>
-      <c r="J128" s="3">
-        <f t="shared" si="5"/>
-        <v>-57.288454307727093</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>-317.21337218148</v>
-      </c>
-      <c r="B129">
-        <v>-297.56566166686099</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129" t="s">
-        <v>129</v>
-      </c>
-      <c r="E129" t="s">
-        <v>154</v>
-      </c>
-      <c r="F129" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-      <c r="H129">
-        <f t="shared" si="3"/>
-        <v>-317.21337218148</v>
-      </c>
-      <c r="I129">
-        <f t="shared" si="4"/>
-        <v>-0.12452569316984682</v>
-      </c>
-      <c r="J129" s="3">
-        <f t="shared" si="5"/>
-        <v>-173.52723047837532</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>-272.42576721319398</v>
-      </c>
-      <c r="B130">
-        <v>-298.49922661389297</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130" t="s">
-        <v>130</v>
-      </c>
-      <c r="E130" t="s">
-        <v>154</v>
-      </c>
-      <c r="F130" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
-      </c>
-      <c r="G130">
-        <v>1</v>
-      </c>
-      <c r="H130">
-        <f t="shared" si="3"/>
-        <v>-272.42576721319398</v>
-      </c>
-      <c r="I130">
-        <f t="shared" si="4"/>
-        <v>-0.10694381282306771</v>
-      </c>
-      <c r="J130" s="3">
-        <f t="shared" si="5"/>
-        <v>-149.02678462245518</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>-156.480940380378</v>
-      </c>
-      <c r="B131">
-        <v>-195.41011288991999</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131" t="s">
-        <v>131</v>
-      </c>
-      <c r="E131" t="s">
-        <v>154</v>
-      </c>
-      <c r="F131" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-      <c r="H131">
-        <f t="shared" si="3"/>
-        <v>-156.480940380378</v>
-      </c>
-      <c r="I131">
-        <f t="shared" si="4"/>
-        <v>-6.142836108935542E-2</v>
-      </c>
-      <c r="J131" s="3">
-        <f t="shared" si="5"/>
-        <v>-85.600755164016022</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>0</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-      <c r="D132" t="s">
-        <v>132</v>
-      </c>
-      <c r="E132" t="s">
-        <v>154</v>
-      </c>
-      <c r="F132" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
-      </c>
-      <c r="H132">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J132" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>186.76883997044399</v>
-      </c>
-      <c r="B133">
-        <v>35.000700867247403</v>
-      </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-      <c r="D133" t="s">
-        <v>133</v>
-      </c>
-      <c r="E133" t="s">
-        <v>154</v>
-      </c>
-      <c r="F133" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
-      </c>
-      <c r="G133">
-        <v>1</v>
-      </c>
-      <c r="H133">
-        <f t="shared" si="3"/>
-        <v>186.76883997044399</v>
-      </c>
-      <c r="I133">
-        <f t="shared" si="4"/>
-        <v>7.33182182702624E-2</v>
-      </c>
-      <c r="J133" s="3">
-        <f t="shared" si="5"/>
-        <v>102.1693357907634</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>140.51230357628401</v>
-      </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134" t="s">
-        <v>134</v>
-      </c>
-      <c r="E134" t="s">
-        <v>154</v>
-      </c>
-      <c r="F134" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
-      </c>
-      <c r="G134">
-        <v>1</v>
-      </c>
-      <c r="H134">
-        <f t="shared" ref="H134:H137" si="6">A134*G134</f>
-        <v>140.51230357628401</v>
-      </c>
-      <c r="I134">
-        <f t="shared" ref="I134:I137" si="7">H134/$H$2</f>
-        <v>5.5159692296068569E-2</v>
-      </c>
-      <c r="J134" s="3">
-        <f t="shared" ref="J134:J137" si="8">I134*$J$2</f>
-        <v>76.86533111781857</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>458.41358799047998</v>
-      </c>
-      <c r="B135">
-        <v>259.864302604351</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135" t="s">
-        <v>135</v>
-      </c>
-      <c r="E135" t="s">
-        <v>154</v>
-      </c>
-      <c r="F135" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
-      </c>
-      <c r="G135">
-        <v>1</v>
-      </c>
-      <c r="H135">
-        <f t="shared" si="6"/>
-        <v>458.41358799047998</v>
-      </c>
-      <c r="I135">
-        <f t="shared" si="7"/>
-        <v>0.17995543318499441</v>
-      </c>
-      <c r="J135" s="3">
-        <f t="shared" si="8"/>
-        <v>250.76887456097992</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>1289.11544534982</v>
-      </c>
-      <c r="B136">
-        <v>1048.39701526213</v>
-      </c>
-      <c r="C136">
-        <v>399.67897623514</v>
-      </c>
-      <c r="D136" t="s">
-        <v>136</v>
-      </c>
-      <c r="E136" t="s">
-        <v>154</v>
-      </c>
-      <c r="F136" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
-      </c>
-      <c r="H136">
-        <f t="shared" si="6"/>
-        <v>1289.11544534982</v>
-      </c>
-      <c r="I136">
-        <f t="shared" si="7"/>
-        <v>0.50605683267445278</v>
-      </c>
-      <c r="J136" s="3">
-        <f t="shared" si="8"/>
-        <v>705.19294776284926</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>1094.4743984675899</v>
-      </c>
-      <c r="B137">
-        <v>688.02238787717704</v>
-      </c>
-      <c r="C137">
-        <v>65.441158181683704</v>
-      </c>
-      <c r="D137" t="s">
-        <v>137</v>
-      </c>
-      <c r="E137" t="s">
-        <v>154</v>
-      </c>
-      <c r="F137" t="str">
-        <f>INDEX([1]Lasso_Weather_Output!$F:$G,MATCH($E:$E,[1]Lasso_Weather_Output!$F:$F,0),2)</f>
-        <v>Holiday/Seasonality</v>
-      </c>
-      <c r="G137">
-        <v>1</v>
-      </c>
-      <c r="H137">
-        <f t="shared" si="6"/>
-        <v>1094.4743984675899</v>
-      </c>
-      <c r="I137">
-        <f t="shared" si="7"/>
-        <v>0.42964829063969978</v>
-      </c>
-      <c r="J137" s="3">
-        <f t="shared" si="8"/>
-        <v>598.71722900417785</v>
+        <v>447.54236438837108</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:J3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/UK-Sales_Predictive_Model/2017/6. LM with Weather + Lasso/Output_Data/Lasso_Weather_Output_analyzed_2017.xlsx
+++ b/UK-Sales_Predictive_Model/2017/6. LM with Weather + Lasso/Output_Data/Lasso_Weather_Output_analyzed_2017.xlsx
@@ -4,23 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="384" windowWidth="22692" windowHeight="8940"/>
+    <workbookView xWindow="288" yWindow="384" windowWidth="22692" windowHeight="8940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lasso_Weather_Output" sheetId="1" r:id="rId1"/>
+    <sheet name="UK FY16-FY17 WATERFALL" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lasso_Weather_Output!$A$4:$J$121</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'UK FY16-FY17 WATERFALL'!$A:$L</definedName>
+    <definedName name="valuevx">42.314159</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="50" r:id="rId3"/>
+    <pivotCache cacheId="53" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="151">
   <si>
     <t>Alpha_0.1</t>
   </si>
@@ -450,15 +457,41 @@
   </si>
   <si>
     <t>Sum of USD Avg. Store Daily Sales</t>
+  </si>
+  <si>
+    <t>Sales Contribution</t>
+  </si>
+  <si>
+    <t>% to Total</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Base Sales</t>
+  </si>
+  <si>
+    <t>Clearance</t>
+  </si>
+  <si>
+    <t>Other Promos</t>
+  </si>
+  <si>
+    <t>Avg. Store Daily Sales</t>
+  </si>
+  <si>
+    <t>$1,377
+ Total Avg. Daily Store Sales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -778,7 +811,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -893,8 +926,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -938,8 +986,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -950,8 +999,26 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -979,6 +1046,7 @@
     <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="43" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
@@ -996,7 +1064,16 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -1013,6 +1090,848 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.3467953610850871E-8"/>
+                  <c:y val="-0.33989154161355678"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1600" b="1"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>$1,377</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> Total Avg. Daily Store Sales</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'UK FY16-FY17 WATERFALL'!$E$53:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-25.535000065206702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1193.3073356957721</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1216.795647993516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1263.1283820338076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1282.05009043219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1393.5054369999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1393.5054369999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Series 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1600" b="1"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>Day of the Week ($643, 46.1%)</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1050" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.9863791393000072E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>Holiday/Seasonality ($23, 1.7%) </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="500">
+                      <a:effectLst/>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.0967335359277854E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1600" b="1"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>Clearance ($46, 3.3%)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1050" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.9109138072532733E-17"/>
+                  <c:y val="-1.9863791393000072E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1600" b="1"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>B3G3 ($19, 1.4%)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1050" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-5.4073654347611307E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1600" b="1"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>Weather ($181, 13.0%)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1050" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.97956870895001E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1600" b="1"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>Other Promos (-$70, -5.0%)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1050" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'UK FY16-FY17 WATERFALL'!$F$53:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>643.01612913364386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.488312297743846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.332734040291633</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.921708398382446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181.00522431685161</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>69.549877749041798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Series 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1600" b="1"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>Labor ($393, 28.2%)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1050" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'UK FY16-FY17 WATERFALL'!$C$53:$C$59</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Base Sales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Holiday/Seasonality</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clearance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B3G3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Weather</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other Promos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Avg. Store Daily Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'UK FY16-FY17 WATERFALL'!$G$53:$G$59</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>393.12999226468941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Series 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1600" b="1"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>Operating Hours ($183, 13.1%)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1050" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'UK FY16-FY17 WATERFALL'!$C$53:$C$59</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Base Sales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Holiday/Seasonality</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clearance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B3G3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Weather</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other Promos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Avg. Store Daily Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'UK FY16-FY17 WATERFALL'!$H$53:$H$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>182.69621436264566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('UK FY16-FY17 WATERFALL'!$K$54,'UK FY16-FY17 WATERFALL'!$K$60)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="185126912"/>
+        <c:axId val="185128448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="185126912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="185128448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="185128448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="185126912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>922020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1292914</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>65557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>294694</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>131366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11991394" y="4454677"/>
+          <a:ext cx="1790700" cy="797329"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1"/>
+            <a:t>$1193</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>(Total</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t> Base Sales)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2685,6 +3604,147 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Lasso_Weather_Output"/>
+      <sheetName val="UK FY16-FY17 WATERFALL"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="53">
+          <cell r="C53" t="str">
+            <v>Base Sales</v>
+          </cell>
+          <cell r="E53">
+            <v>103.14430177588201</v>
+          </cell>
+          <cell r="F53">
+            <v>416.60211018882489</v>
+          </cell>
+          <cell r="G53">
+            <v>27.476676368069263</v>
+          </cell>
+          <cell r="H53">
+            <v>4.2839569856184996</v>
+          </cell>
+          <cell r="K53" t="str">
+            <v>Base ($103, 7.5%)</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54" t="str">
+            <v>Holiday/Seasonality</v>
+          </cell>
+          <cell r="E54">
+            <v>551.5070453183946</v>
+          </cell>
+          <cell r="F54">
+            <v>705.30248196928824</v>
+          </cell>
+          <cell r="G54">
+            <v>103.2658116894884</v>
+          </cell>
+          <cell r="K54" t="str">
+            <v>Day of the Week ($417, 30.3%)</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55" t="str">
+            <v>Clearance</v>
+          </cell>
+          <cell r="E55">
+            <v>1360.0753389771712</v>
+          </cell>
+          <cell r="F55">
+            <v>58.34015727655833</v>
+          </cell>
+          <cell r="K55" t="str">
+            <v>Labor ($27, 2.%)</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56" t="str">
+            <v>B3G3</v>
+          </cell>
+          <cell r="E56">
+            <v>1418.4154962537295</v>
+          </cell>
+          <cell r="F56">
+            <v>51.686724529761726</v>
+          </cell>
+          <cell r="K56" t="str">
+            <v>Operating Hours ($4, .3%)</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57" t="str">
+            <v>Weather</v>
+          </cell>
+          <cell r="E57">
+            <v>1463.4956634196262</v>
+          </cell>
+          <cell r="F57">
+            <v>6.6065573638650665</v>
+          </cell>
+          <cell r="K57" t="str">
+            <v>Seasonality ($705, 51.2%)</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58" t="str">
+            <v>Other Promos</v>
+          </cell>
+          <cell r="E58">
+            <v>1377.1364999999998</v>
+          </cell>
+          <cell r="F58">
+            <v>86.35916341962637</v>
+          </cell>
+          <cell r="K58" t="str">
+            <v>Holiday ($103, 7.5%)</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59" t="str">
+            <v>Avg. Store Daily Sales</v>
+          </cell>
+          <cell r="E59">
+            <v>1377.1364999999998</v>
+          </cell>
+          <cell r="K59" t="str">
+            <v>Clearance ($58, 4.2%)</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="K60" t="str">
+            <v>B3G3 ($52, 3.8%)</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="K61" t="str">
+            <v>Weather (-$7, -.5%)</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="K62" t="str">
+            <v>Other Promos (-$86, -4.2%)</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="K63" t="str">
+            <v>$1,377
+ Total Avg. Daily Store Sales</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2724,7 +3784,14 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Waterfall Category" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="6">
+        <s v="Base"/>
+        <s v="Weather"/>
+        <s v="Holiday/Seasonality"/>
+        <s v="Other Promo"/>
+        <s v="B3G3"/>
+        <s v="CLX"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Non-Categorical Multiplier" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.4695E-2" maxValue="79.625765000000001"/>
@@ -2755,7 +3822,7 @@
     <n v="153.2107613"/>
     <s v="Intercept"/>
     <x v="0"/>
-    <s v="Base"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="-683.29455829999995"/>
     <n v="-0.19958153798419564"/>
@@ -2767,7 +3834,7 @@
     <n v="9.2361252389999997"/>
     <s v="Open Hours"/>
     <x v="1"/>
-    <s v="Base"/>
+    <x v="0"/>
     <n v="8.6258610000000004"/>
     <n v="448.85749146319432"/>
     <n v="0.13110549088058251"/>
@@ -2779,7 +3846,7 @@
     <n v="57.090088090000002"/>
     <s v="Labour Hours"/>
     <x v="2"/>
-    <s v="Base"/>
+    <x v="0"/>
     <n v="21.081174000000001"/>
     <n v="965.86206103103939"/>
     <n v="0.28211586537547856"/>
@@ -2791,7 +3858,7 @@
     <n v="0"/>
     <s v="rain"/>
     <x v="3"/>
-    <s v="Weather"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="5.3449809750000004"/>
     <n v="1.56120008644706E-3"/>
@@ -2803,7 +3870,7 @@
     <n v="0"/>
     <s v="snow"/>
     <x v="3"/>
-    <s v="Weather"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="-54.275031679999998"/>
     <n v="-1.5853037559358744E-2"/>
@@ -2815,7 +3882,7 @@
     <n v="0"/>
     <s v="meantempi"/>
     <x v="3"/>
-    <s v="Weather"/>
+    <x v="1"/>
     <n v="51.137203"/>
     <n v="575.39259571690752"/>
     <n v="0.1680647647532991"/>
@@ -2827,7 +3894,7 @@
     <n v="-2.3450716200000001"/>
     <s v="meandewpti"/>
     <x v="3"/>
-    <s v="Weather"/>
+    <x v="1"/>
     <n v="45.474352000000003"/>
     <n v="-423.49964109701131"/>
     <n v="-0.1236987894593868"/>
@@ -2839,7 +3906,7 @@
     <n v="-0.91563770200000005"/>
     <s v="meanwindspdi"/>
     <x v="3"/>
-    <s v="Weather"/>
+    <x v="1"/>
     <n v="8.5805030000000002"/>
     <n v="-10.25686834600887"/>
     <n v="-2.9958991104669297E-3"/>
@@ -2851,7 +3918,7 @@
     <n v="0.77820998699999999"/>
     <s v="humidity"/>
     <x v="3"/>
-    <s v="Weather"/>
+    <x v="1"/>
     <n v="79.625765000000001"/>
     <n v="353.72437268662969"/>
     <n v="0.10331833243181905"/>
@@ -2863,7 +3930,7 @@
     <n v="0"/>
     <s v="precipi"/>
     <x v="3"/>
-    <s v="Weather"/>
+    <x v="1"/>
     <n v="1.4695E-2"/>
     <n v="-1.7274284371984998"/>
     <n v="-5.0455959302743967E-4"/>
@@ -2875,7 +3942,7 @@
     <n v="0"/>
     <s v="Holiday_Event__x000d__x000a_World Book Day"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-77.897143959999994"/>
     <n v="-2.2752752246107118E-2"/>
@@ -2887,7 +3954,7 @@
     <n v="0"/>
     <s v="Holiday_Event_Bank Holiday (Scot &amp; Ni)"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="504.9403959"/>
     <n v="0.14748658478240753"/>
@@ -2899,7 +3966,7 @@
     <n v="0"/>
     <s v="Holiday_Event_Black Friday"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="441.56727660000001"/>
     <n v="0.12897611303473588"/>
@@ -2911,7 +3978,7 @@
     <n v="0"/>
     <s v="Holiday_Event_Bonfire Night"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="59.568525379999997"/>
     <n v="1.7399198876059587E-2"/>
@@ -2923,7 +3990,7 @@
     <n v="0"/>
     <s v="Holiday_Event_Boxing Day (Bhol)"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-38.025482029999999"/>
     <n v="-1.1106753440301464E-2"/>
@@ -2935,7 +4002,7 @@
     <n v="0"/>
     <s v="Holiday_Event_Christmas Eve"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-964.50673489999997"/>
     <n v="-0.28171999207249782"/>
@@ -2947,7 +4014,7 @@
     <n v="0"/>
     <s v="Holiday_Event_Comic Relief  "/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-257.21313070000002"/>
     <n v="-7.5128641946973246E-2"/>
@@ -2959,7 +4026,7 @@
     <n v="0"/>
     <s v="Holiday_Event_Easter Sunday"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-782.56097250000005"/>
     <n v="-0.22857597877925009"/>
@@ -2971,7 +4038,7 @@
     <n v="0"/>
     <s v="Holiday_Event_England/Wales Christmas Holidays End"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="39.488981389999999"/>
     <n v="1.1534222749927438E-2"/>
@@ -2983,7 +4050,7 @@
     <n v="0"/>
     <s v="Holiday_Event_Fathers Day"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-237.68403699999999"/>
     <n v="-6.9424445259412021E-2"/>
@@ -2995,7 +4062,7 @@
     <n v="0"/>
     <s v="Holiday_Event_Good Friday (Bhol)"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="0"/>
     <n v="0"/>
@@ -3007,7 +4074,7 @@
     <n v="0"/>
     <s v="Holiday_Event_Halloween"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-4.7517473260000003"/>
     <n v="-1.3879241798659136E-3"/>
@@ -3019,7 +4086,7 @@
     <n v="0"/>
     <s v="Holiday_Event_Maw World Wish Day"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="436.00576330000001"/>
     <n v="0.12735166664561914"/>
@@ -3031,7 +4098,7 @@
     <n v="0"/>
     <s v="Holiday_Event_May Day Bank Holiday"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="847.82395570000006"/>
     <n v="0.24763845542606977"/>
@@ -3043,7 +4110,7 @@
     <n v="0"/>
     <s v="Holiday_Event_Mothers Day"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-288.26720499999999"/>
     <n v="-8.4199136998023144E-2"/>
@@ -3055,7 +4122,7 @@
     <n v="0"/>
     <s v="Holiday_Event_New Years Day"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-1804.196518"/>
     <n v="-0.52698256047002756"/>
@@ -3067,7 +4134,7 @@
     <n v="0"/>
     <s v="Holiday_Event_New Years Eve"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-1082.4861169999999"/>
     <n v="-0.31618024972261799"/>
@@ -3079,7 +4146,7 @@
     <n v="0"/>
     <s v="Holiday_Event_Ni Christmas Holidays Ends"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="276.42680919999998"/>
     <n v="8.0740709917929115E-2"/>
@@ -3091,7 +4158,7 @@
     <n v="0"/>
     <s v="Holiday_Event_None"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="0"/>
     <n v="0"/>
@@ -3103,7 +4170,7 @@
     <n v="0"/>
     <s v="Holiday_Event_Orangemans Day Bhol  (Ni)"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-61.347500549999999"/>
     <n v="-1.79188146056911E-2"/>
@@ -3115,7 +4182,7 @@
     <n v="0"/>
     <s v="Holiday_Event_Rememberance Sunday"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="143.04397710000001"/>
     <n v="4.1781302956695986E-2"/>
@@ -3127,7 +4194,7 @@
     <n v="0"/>
     <s v="Holiday_Event_School Hol"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="157.22571009999999"/>
     <n v="4.5923604470794278E-2"/>
@@ -3139,7 +4206,7 @@
     <n v="0"/>
     <s v="Holiday_Event_Scottish Christmas Holidays End"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="9.5665655849999993"/>
     <n v="2.7942705667541629E-3"/>
@@ -3151,7 +4218,7 @@
     <n v="0"/>
     <s v="Holiday_Event_Shrove Tuesday"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-85.435203529999995"/>
     <n v="-2.495452233796925E-2"/>
@@ -3163,7 +4230,7 @@
     <n v="0"/>
     <s v="Holiday_Event_Spring Bank Holiday School Hol (Eng / Wales)"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="28.469730340000002"/>
     <n v="8.3156414729675422E-3"/>
@@ -3175,7 +4242,7 @@
     <n v="0"/>
     <s v="Holiday_Event_St Georges Day (England)"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="296.64551110000002"/>
     <n v="8.6646332276880053E-2"/>
@@ -3187,7 +4254,7 @@
     <n v="0"/>
     <s v="Holiday_Event_St Patricks Day (Ni Bhol)"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-71.172949160000002"/>
     <n v="-2.0788701569004968E-2"/>
@@ -3199,7 +4266,7 @@
     <n v="0"/>
     <s v="Holiday_Event_Valentines Day"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="280.56459690000003"/>
     <n v="8.194930440033317E-2"/>
@@ -3211,7 +4278,7 @@
     <n v="0"/>
     <s v="Holiday_Period_All School Hols"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="127.7332078"/>
     <n v="3.7309224484100297E-2"/>
@@ -3223,7 +4290,7 @@
     <n v="232.22158780000001"/>
     <s v="Holiday_Period_Christmas"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-1.113836E-2"/>
     <n v="-3.2533714668420267E-6"/>
@@ -3235,7 +4302,7 @@
     <n v="0"/>
     <s v="Holiday_Period_Easter"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="71.23734365"/>
     <n v="2.0807510369976374E-2"/>
@@ -3247,7 +4314,7 @@
     <n v="0"/>
     <s v="Holiday_Period_Halloween"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="397.17671910000001"/>
     <n v="0.11601020304729517"/>
@@ -3259,7 +4326,7 @@
     <n v="-198.24778670000001"/>
     <s v="Holiday_Period_None"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-155.17546010000001"/>
     <n v="-4.5324752857999147E-2"/>
@@ -3271,7 +4338,7 @@
     <n v="0"/>
     <s v="Holiday_Period_School Hols"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="469.7669745"/>
     <n v="0.13721288151065381"/>
@@ -3283,7 +4350,7 @@
     <n v="-130.5246631"/>
     <s v="Holiday_Period_Scotland School Hols"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-189.6033382"/>
     <n v="-5.5380692536233234E-2"/>
@@ -3295,7 +4362,7 @@
     <n v="0"/>
     <s v="Holiday_Period_St Patricks Day"/>
     <x v="4"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-174.86429509999999"/>
     <n v="-5.1075607921434035E-2"/>
@@ -3307,7 +4374,7 @@
     <n v="-185.42424840000001"/>
     <s v="Promo_Es342"/>
     <x v="5"/>
-    <s v="Other Promo"/>
+    <x v="3"/>
     <n v="1"/>
     <n v="-177.52879200000001"/>
     <n v="-5.1853873140725662E-2"/>
@@ -3319,7 +4386,7 @@
     <n v="0"/>
     <s v="Promo_Esb3G2"/>
     <x v="6"/>
-    <s v="Other Promo"/>
+    <x v="3"/>
     <n v="1"/>
     <n v="6.65506171"/>
     <n v="1.9438577921154377E-3"/>
@@ -3331,7 +4398,7 @@
     <n v="0"/>
     <s v="Promo_Esb3G3"/>
     <x v="7"/>
-    <s v="B3G3"/>
+    <x v="4"/>
     <n v="1"/>
     <n v="-49.483520130000002"/>
     <n v="-1.4453498761922317E-2"/>
@@ -3343,7 +4410,7 @@
     <n v="65.3409616"/>
     <s v="Promo_Esb3G3 / Secret Sale 342"/>
     <x v="7"/>
-    <s v="B3G3"/>
+    <x v="4"/>
     <n v="1"/>
     <n v="95.971350189999995"/>
     <n v="2.8031995046169284E-2"/>
@@ -3355,7 +4422,7 @@
     <n v="0"/>
     <s v="Sales_Promo_545"/>
     <x v="8"/>
-    <s v="CLX"/>
+    <x v="5"/>
     <n v="1"/>
     <n v="-87.745960789999998"/>
     <n v="-2.5629464765443498E-2"/>
@@ -3367,7 +4434,7 @@
     <n v="187.41988259999999"/>
     <s v="Sales_Promo_345"/>
     <x v="8"/>
-    <s v="CLX"/>
+    <x v="5"/>
     <n v="1"/>
     <n v="94.485597889999994"/>
     <n v="2.759802593944128E-2"/>
@@ -3379,7 +4446,7 @@
     <n v="-14.899071340000001"/>
     <s v="Sales_Promo_545 (Over €5 @ €5)"/>
     <x v="8"/>
-    <s v="CLX"/>
+    <x v="5"/>
     <n v="1"/>
     <n v="0"/>
     <n v="0"/>
@@ -3391,7 +4458,7 @@
     <n v="42.81138618"/>
     <s v="Sales_Promo_75% Off"/>
     <x v="8"/>
-    <s v="CLX"/>
+    <x v="5"/>
     <n v="1"/>
     <n v="107.0930159"/>
     <n v="3.1280490325965353E-2"/>
@@ -3403,7 +4470,7 @@
     <n v="0"/>
     <s v="Cluster_0"/>
     <x v="0"/>
-    <s v="Base"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="37.356290749999999"/>
     <n v="1.0911291288224184E-2"/>
@@ -3415,7 +4482,7 @@
     <n v="-243.36068589999999"/>
     <s v="Cluster_1"/>
     <x v="0"/>
-    <s v="Base"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="-299.85608400000001"/>
     <n v="-8.7584099260985093E-2"/>
@@ -3427,7 +4494,7 @@
     <n v="0"/>
     <s v="Cluster_2"/>
     <x v="0"/>
-    <s v="Base"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="-101.78527699999999"/>
     <n v="-2.973016816985732E-2"/>
@@ -3439,7 +4506,7 @@
     <n v="615.24976119999997"/>
     <s v="Cluster_3"/>
     <x v="0"/>
-    <s v="Base"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="984.84392209999999"/>
     <n v="0.28766022246119999"/>
@@ -3451,7 +4518,7 @@
     <n v="-6.7590175910000001"/>
     <s v="Day_of_Week_0"/>
     <x v="9"/>
-    <s v="Base"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="-146.09417160000001"/>
     <n v="-4.2672225476224755E-2"/>
@@ -3463,7 +4530,7 @@
     <n v="-10.84649821"/>
     <s v="Day_of_Week_1"/>
     <x v="9"/>
-    <s v="Base"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="-67.559541580000001"/>
     <n v="-1.9733271764362032E-2"/>
@@ -3475,7 +4542,7 @@
     <n v="0"/>
     <s v="Day_of_Week_2"/>
     <x v="9"/>
-    <s v="Base"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="0"/>
     <n v="0"/>
@@ -3487,7 +4554,7 @@
     <n v="0"/>
     <s v="Day_of_Week_3"/>
     <x v="9"/>
-    <s v="Base"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="-0.53123261300000002"/>
     <n v="-1.5516620268963589E-4"/>
@@ -3499,7 +4566,7 @@
     <n v="64.134841109999996"/>
     <s v="Day_of_Week_4"/>
     <x v="9"/>
-    <s v="Base"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="192.1693544"/>
     <n v="5.6130192811725717E-2"/>
@@ -3511,7 +4578,7 @@
     <n v="846.72665510000002"/>
     <s v="Day_of_Week_5"/>
     <x v="9"/>
-    <s v="Base"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1025.172849"/>
     <n v="0.29943978247405806"/>
@@ -3523,7 +4590,7 @@
     <n v="301.67933849999997"/>
     <s v="Day_of_Week_6"/>
     <x v="9"/>
-    <s v="Base"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="576.63796530000002"/>
     <n v="0.16842852116513227"/>
@@ -3535,7 +4602,7 @@
     <n v="0"/>
     <s v="Week_Num_1"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="117.88721839999999"/>
     <n v="3.4433337820642743E-2"/>
@@ -3547,7 +4614,7 @@
     <n v="0"/>
     <s v="Week_Num_2"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-3.6026667259999998"/>
     <n v="-1.0522925395578507E-3"/>
@@ -3559,7 +4626,7 @@
     <n v="0"/>
     <s v="Week_Num_3"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="20.489658259999999"/>
     <n v="5.9847652211302239E-3"/>
@@ -3571,7 +4638,7 @@
     <n v="0"/>
     <s v="Week_Num_4"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="73.501880209999996"/>
     <n v="2.1468952326415613E-2"/>
@@ -3583,7 +4650,7 @@
     <n v="0"/>
     <s v="Week_Num_5"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-30.508710990000001"/>
     <n v="-8.9112014538043089E-3"/>
@@ -3595,7 +4662,7 @@
     <n v="0"/>
     <s v="Week_Num_6"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-129.5691406"/>
     <n v="-3.7845476803702052E-2"/>
@@ -3607,7 +4674,7 @@
     <n v="0"/>
     <s v="Week_Num_7"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-186.63127900000001"/>
     <n v="-5.4512592331261829E-2"/>
@@ -3619,7 +4686,7 @@
     <n v="0"/>
     <s v="Week_Num_8"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-122.3778647"/>
     <n v="-3.5744997754430102E-2"/>
@@ -3631,7 +4698,7 @@
     <n v="0"/>
     <s v="Week_Num_9"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="64.347456519999994"/>
     <n v="1.8795063097801285E-2"/>
@@ -3643,7 +4710,7 @@
     <n v="0"/>
     <s v="Week_Num_10"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-117.6534417"/>
     <n v="-3.4365054658185033E-2"/>
@@ -3655,7 +4722,7 @@
     <n v="0"/>
     <s v="Week_Num_11"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-54.047473070000002"/>
     <n v="-1.5786570620885915E-2"/>
@@ -3667,7 +4734,7 @@
     <n v="0"/>
     <s v="Week_Num_12"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="109.8768579"/>
     <n v="3.2093614711511925E-2"/>
@@ -3679,7 +4746,7 @@
     <n v="0"/>
     <s v="Week_Num_13"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="1.4492197570000001"/>
     <n v="4.2329842154567956E-4"/>
@@ -3691,7 +4758,7 @@
     <n v="0"/>
     <s v="Week_Num_14"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-410.32110510000001"/>
     <n v="-0.11984950886624497"/>
@@ -3703,7 +4770,7 @@
     <n v="0"/>
     <s v="Week_Num_15"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="333.51959799999997"/>
     <n v="9.7416778032477225E-2"/>
@@ -3715,7 +4782,7 @@
     <n v="0"/>
     <s v="Week_Num_16"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-398.49439749999999"/>
     <n v="-0.11639507993303363"/>
@@ -3727,7 +4794,7 @@
     <n v="0"/>
     <s v="Week_Num_17"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="59.737853100000002"/>
     <n v="1.7448657321718863E-2"/>
@@ -3739,7 +4806,7 @@
     <n v="0"/>
     <s v="Week_Num_18"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="0"/>
     <n v="0"/>
@@ -3751,7 +4818,7 @@
     <n v="0"/>
     <s v="Week_Num_19"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="0"/>
     <n v="0"/>
@@ -3763,7 +4830,7 @@
     <n v="0"/>
     <s v="Week_Num_20"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-7.6539598619999998"/>
     <n v="-2.235623074077776E-3"/>
@@ -3775,7 +4842,7 @@
     <n v="0"/>
     <s v="Week_Num_21"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-71.669286929999998"/>
     <n v="-2.0933675437584724E-2"/>
@@ -3787,7 +4854,7 @@
     <n v="0"/>
     <s v="Week_Num_22"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="0"/>
     <n v="0"/>
@@ -3799,7 +4866,7 @@
     <n v="0"/>
     <s v="Week_Num_23"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="34.294609180000002"/>
     <n v="1.0017013543529804E-2"/>
@@ -3811,7 +4878,7 @@
     <n v="0"/>
     <s v="Week_Num_24"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-77.564510619999993"/>
     <n v="-2.2655594332619284E-2"/>
@@ -3823,7 +4890,7 @@
     <n v="0"/>
     <s v="Week_Num_25"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="54.801860529999999"/>
     <n v="1.6006917479607256E-2"/>
@@ -3835,7 +4902,7 @@
     <n v="0"/>
     <s v="Week_Num_26"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="210.0068704"/>
     <n v="6.1340301444750514E-2"/>
@@ -3847,7 +4914,7 @@
     <n v="0"/>
     <s v="Week_Num_27"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="146.76724110000001"/>
     <n v="4.2868820406403135E-2"/>
@@ -3859,7 +4926,7 @@
     <n v="0"/>
     <s v="Week_Num_28"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="188.46541049999999"/>
     <n v="5.5048318514338702E-2"/>
@@ -3871,7 +4938,7 @@
     <n v="0"/>
     <s v="Week_Num_29"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="112.99245430000001"/>
     <n v="3.3003640283495207E-2"/>
@@ -3883,7 +4950,7 @@
     <n v="0"/>
     <s v="Week_Num_30"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="436.19532609999999"/>
     <n v="0.12740703549746937"/>
@@ -3895,7 +4962,7 @@
     <n v="0"/>
     <s v="Week_Num_31"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="195.9290436"/>
     <n v="5.7228349593107727E-2"/>
@@ -3907,7 +4974,7 @@
     <n v="0"/>
     <s v="Week_Num_32"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-33.292483490000002"/>
     <n v="-9.724305539296204E-3"/>
@@ -3919,7 +4986,7 @@
     <n v="0"/>
     <s v="Week_Num_33"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-52.829116419999998"/>
     <n v="-1.5430704338816808E-2"/>
@@ -3931,7 +4998,7 @@
     <n v="0"/>
     <s v="Week_Num_34"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-75.206415239999998"/>
     <n v="-2.196682505012312E-2"/>
@@ -3943,7 +5010,7 @@
     <n v="0"/>
     <s v="Week_Num_35"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-9.8012408690000008"/>
     <n v="-2.8628161940223293E-3"/>
@@ -3955,7 +5022,7 @@
     <n v="0"/>
     <s v="Week_Num_36"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-88.886605549999999"/>
     <n v="-2.5962632405561691E-2"/>
@@ -3967,7 +5034,7 @@
     <n v="0"/>
     <s v="Week_Num_37"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="134.1738545"/>
     <n v="3.9190454413981383E-2"/>
@@ -3979,7 +5046,7 @@
     <n v="0"/>
     <s v="Week_Num_38"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="0"/>
     <n v="0"/>
@@ -3991,7 +5058,7 @@
     <n v="0"/>
     <s v="Week_Num_39"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="35.398979140000002"/>
     <n v="1.0339585781875618E-2"/>
@@ -4003,7 +5070,7 @@
     <n v="0"/>
     <s v="Week_Num_40"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-85.061189319999997"/>
     <n v="-2.4845277605440631E-2"/>
@@ -4015,7 +5082,7 @@
     <n v="0"/>
     <s v="Week_Num_41"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-164.20699980000001"/>
     <n v="-4.7962749256179042E-2"/>
@@ -4027,7 +5094,7 @@
     <n v="0"/>
     <s v="Week_Num_42"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-833.72380180000005"/>
     <n v="-0.24351998211614431"/>
@@ -4039,7 +5106,7 @@
     <n v="0"/>
     <s v="Week_Num_43"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-98.466292159999995"/>
     <n v="-2.8760735454687648E-2"/>
@@ -4051,7 +5118,7 @@
     <n v="0"/>
     <s v="Week_Num_44"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-315.89532759999997"/>
     <n v="-9.2268955692090621E-2"/>
@@ -4063,7 +5130,7 @@
     <n v="0"/>
     <s v="Week_Num_45"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-265.33898950000003"/>
     <n v="-7.750210062163515E-2"/>
@@ -4075,7 +5142,7 @@
     <n v="0"/>
     <s v="Week_Num_46"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="-148.8260076"/>
     <n v="-4.347015957913504E-2"/>
@@ -4087,7 +5154,7 @@
     <n v="0"/>
     <s v="Week_Num_47"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="0"/>
     <n v="0"/>
@@ -4099,7 +5166,7 @@
     <n v="0"/>
     <s v="Week_Num_48"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="193.50800889999999"/>
     <n v="5.6521196546051027E-2"/>
@@ -4111,7 +5178,7 @@
     <n v="0"/>
     <s v="Week_Num_49"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="146.636358"/>
     <n v="4.2830591138985678E-2"/>
@@ -4123,7 +5190,7 @@
     <n v="0"/>
     <s v="Week_Num_50"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="462.65696680000002"/>
     <n v="0.13513613985566986"/>
@@ -4135,7 +5202,7 @@
     <n v="405.58497670000003"/>
     <s v="Week_Num_51"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="1295.100623"/>
     <n v="0.37828220793344197"/>
@@ -4147,7 +5214,7 @@
     <n v="81.268530429999998"/>
     <s v="Week_Num_52"/>
     <x v="10"/>
-    <s v="Holiday/Seasonality"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="1099.5451860000001"/>
     <n v="0.32116298401523286"/>
@@ -4157,7 +5224,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N6:O18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -4234,15 +5301,162 @@
     <dataField name="Sum of USD Avg. Store Daily Sales" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="3">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Waterfall Category">
+  <location ref="C31:E49" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="5"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sales Contribution" fld="9" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="% to Total" fld="9" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="3">
     <format dxfId="0">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -4543,8 +5757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8784,6 +9998,692 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:J121"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C6:K63"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="7" customWidth="1"/>
+    <col min="11" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="6">
+        <v>52.64742943915153</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3.6636736115739831E-2</v>
+      </c>
+      <c r="H7">
+        <v>1197.51</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="6">
+        <v>139.34001609603177</v>
+      </c>
+      <c r="E8" s="7">
+        <v>9.6965102654697224E-2</v>
+      </c>
+      <c r="H8">
+        <v>1377.1364999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="6">
+        <v>59.424530024494629</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4.135284188614613E-2</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.95833333333333315</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="6">
+        <v>424.34552392149624</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.29529713316346434</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-28.613435189173781</v>
+      </c>
+      <c r="E11" s="7">
+        <v>-1.9911758001445901E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="6">
+        <v>105.18522084463977</v>
+      </c>
+      <c r="E12" s="7">
+        <v>7.3197176394240102E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="6">
+        <v>27.987387350834663</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1.9476098564823855E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4.3635832057967319</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3.0365669916442807E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="6">
+        <v>-59.350892284140279</v>
+      </c>
+      <c r="E15" s="7">
+        <v>-4.1301598235881309E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="6">
+        <v>718.41199051712738</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.49993457989016604</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="6">
+        <v>-6.7293539262584883</v>
+      </c>
+      <c r="E17" s="7">
+        <v>-4.6828794235945752E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1437.0120000000002</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23">
+        <v>823.59721136176711</v>
+      </c>
+      <c r="E23">
+        <v>0.57313175628440616</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24">
+        <v>596.03651057415937</v>
+      </c>
+      <c r="E24">
+        <v>0.41477490137462963</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25">
+        <v>59.424530024494629</v>
+      </c>
+      <c r="E25">
+        <v>4.135284188614613E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26">
+        <v>52.64742943915153</v>
+      </c>
+      <c r="E26">
+        <v>3.6636736115739831E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27">
+        <v>-6.7293539262584883</v>
+      </c>
+      <c r="E27">
+        <v>-4.6828794235945752E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28">
+        <v>-87.964327473314057</v>
+      </c>
+      <c r="E28">
+        <v>-6.121335623732721E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29">
+        <v>1437.0120000000002</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="6">
+        <v>18.921708398382446</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1.357849628424697E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="6">
+        <v>18.921708398382446</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1.357849628424697E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1193.3073356957721</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.85633489759808701</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="6">
+        <v>643.01612913364386</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.46143783300763974</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="6">
+        <v>393.12999226468941</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.28211586537547861</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C37" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="6">
+        <v>182.69621436264566</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0.13110549088058257</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="6">
+        <v>-25.535000065206702</v>
+      </c>
+      <c r="E38" s="9">
+        <v>-1.8324291665613869E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="6">
+        <v>46.332734040291633</v>
+      </c>
+      <c r="E39" s="9">
+        <v>3.3249051499963142E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="6">
+        <v>46.332734040291633</v>
+      </c>
+      <c r="E40" s="9">
+        <v>3.3249051499963142E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="6">
+        <v>23.488312297743846</v>
+      </c>
+      <c r="E41" s="9">
+        <v>1.6855558416987972E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C42" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="6">
+        <v>-687.03657615013651</v>
+      </c>
+      <c r="E42" s="9">
+        <v>-0.49302755332567583</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C43" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="6">
+        <v>710.52488844788036</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0.50988311174266376</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="6">
+        <v>-69.549877749041798</v>
+      </c>
+      <c r="E44" s="9">
+        <v>-4.991001534861024E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C45" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="6">
+        <v>-72.258654151109482</v>
+      </c>
+      <c r="E45" s="9">
+        <v>-5.1853873140725683E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C46" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2.7087764020676781</v>
+      </c>
+      <c r="E46" s="9">
+        <v>1.9438577921154384E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="6">
+        <v>181.00522431685161</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0.12989201154932534</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C48" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="6">
+        <v>181.00522431685161</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0.12989201154932534</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1393.5054369999996</v>
+      </c>
+      <c r="E49" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C53" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="12">
+        <f>D34</f>
+        <v>1193.3073356957721</v>
+      </c>
+      <c r="E53" s="12">
+        <f>D38</f>
+        <v>-25.535000065206702</v>
+      </c>
+      <c r="F53" s="12">
+        <f>D35</f>
+        <v>643.01612913364386</v>
+      </c>
+      <c r="G53" s="12">
+        <f>D36</f>
+        <v>393.12999226468941</v>
+      </c>
+      <c r="H53" s="12">
+        <f>D37</f>
+        <v>182.69621436264566</v>
+      </c>
+      <c r="I53" s="13"/>
+      <c r="J53">
+        <f>D53/$E$59</f>
+        <v>0.85633489759808679</v>
+      </c>
+      <c r="K53" t="str">
+        <f>"Base ($"&amp;TEXT(E53,"###")&amp;", "&amp;TEXT(E38*100,"#.#")&amp;"%)"</f>
+        <v>Base ($-26, -1.8%)</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C54" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="12">
+        <f>D41</f>
+        <v>23.488312297743846</v>
+      </c>
+      <c r="E54" s="6">
+        <f>D53</f>
+        <v>1193.3073356957721</v>
+      </c>
+      <c r="F54" s="6">
+        <f>D41</f>
+        <v>23.488312297743846</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="J54">
+        <f t="shared" ref="J54:J58" si="0">D54/$E$59</f>
+        <v>1.6855558416987972E-2</v>
+      </c>
+      <c r="K54" t="str">
+        <f>"Day of the Week ($"&amp;TEXT(F53,"###")&amp;", "&amp;TEXT(E35*100,"#.#")&amp;"%)"</f>
+        <v>Day of the Week ($643, 46.1%)</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C55" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="12">
+        <f>D39</f>
+        <v>46.332734040291633</v>
+      </c>
+      <c r="E55" s="6">
+        <f>SUM(D53:D54)</f>
+        <v>1216.795647993516</v>
+      </c>
+      <c r="F55" s="6">
+        <f>D55</f>
+        <v>46.332734040291633</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>3.3249051499963142E-2</v>
+      </c>
+      <c r="K55" t="str">
+        <f>"Labor ($"&amp;TEXT(G53,"###")&amp;", "&amp;TEXT(E36*100,"#.#")&amp;"%)"</f>
+        <v>Labor ($393, 28.2%)</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C56" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="12">
+        <f>D32</f>
+        <v>18.921708398382446</v>
+      </c>
+      <c r="E56" s="6">
+        <f>SUM(E55:F55)</f>
+        <v>1263.1283820338076</v>
+      </c>
+      <c r="F56" s="6">
+        <f>D56</f>
+        <v>18.921708398382446</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>1.3578496284246969E-2</v>
+      </c>
+      <c r="K56" t="str">
+        <f>"Operating Hours ($"&amp;TEXT(H53,"###")&amp;", "&amp;TEXT(E37*100,"#.#")&amp;"%)"</f>
+        <v>Operating Hours ($183, 13.1%)</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C57" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="12">
+        <f>D47</f>
+        <v>181.00522431685161</v>
+      </c>
+      <c r="E57" s="6">
+        <f>SUM(E56:F56)</f>
+        <v>1282.05009043219</v>
+      </c>
+      <c r="F57" s="6">
+        <f>D57</f>
+        <v>181.00522431685161</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>0.12989201154932534</v>
+      </c>
+      <c r="K57" t="str">
+        <f>"Seasonality ($"&amp;TEXT(F54,"###")&amp;", "&amp;TEXT(E43*100,"#.#")&amp;"%)"</f>
+        <v>Seasonality ($23, 51.%)</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C58" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="12">
+        <f>D44</f>
+        <v>-69.549877749041798</v>
+      </c>
+      <c r="E58" s="6">
+        <f>SUM(E57:F57,D58)</f>
+        <v>1393.5054369999998</v>
+      </c>
+      <c r="F58" s="3">
+        <f>D58*-1</f>
+        <v>69.549877749041798</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>-4.9910015348610233E-2</v>
+      </c>
+      <c r="K58" t="str">
+        <f>"Holiday ($"&amp;TEXT(G54,"###")&amp;", "&amp;TEXT(E42*100,"#.#")&amp;"%)"</f>
+        <v>Holiday ($, -49.3%)</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C59" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="6">
+        <f>SUM(D53:D58)</f>
+        <v>1393.5054369999998</v>
+      </c>
+      <c r="K59" t="str">
+        <f>"Clearance ($"&amp;TEXT(F55,"###")&amp;", "&amp;TEXT(E39*100,"#.#")&amp;"%)"</f>
+        <v>Clearance ($46, 3.3%)</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D60" s="12"/>
+      <c r="K60" t="str">
+        <f>"B3G3 ($"&amp;TEXT(F56,"###")&amp;", "&amp;TEXT(E32*100,"#.#")&amp;"%)"</f>
+        <v>B3G3 ($19, 1.4%)</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K61" t="str">
+        <f>"Weather ($"&amp;TEXT(F57,"###")&amp;", "&amp;TEXT(E47*100,"#.#")&amp;"%)"</f>
+        <v>Weather ($181, 13.%)</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K62" t="str">
+        <f>"Other Promos (-$"&amp;TEXT(F58,"###")&amp;", "&amp;TEXT(E46*100,"#.#")&amp;"%)"</f>
+        <v>Other Promos (-$70, .2%)</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K63" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.25" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;K01+049http://www.vertex42.com/ExcelTemplates/waterfall-chart.html&amp;R&amp;"Arial,Regular"&amp;8&amp;K01+049Waterfall Chart Template by Vertex42.com</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/UK-Sales_Predictive_Model/2017/6. LM with Weather + Lasso/Output_Data/Lasso_Weather_Output_analyzed_2017.xlsx
+++ b/UK-Sales_Predictive_Model/2017/6. LM with Weather + Lasso/Output_Data/Lasso_Weather_Output_analyzed_2017.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="384" windowWidth="22692" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="288" yWindow="384" windowWidth="22692" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Lasso_Weather_Output" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lasso_Weather_Output!$A$4:$J$121</definedName>
@@ -21,7 +20,7 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="53" r:id="rId5"/>
+    <pivotCache cacheId="58" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1066,13 +1065,13 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1766,11 +1765,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="185126912"/>
-        <c:axId val="185128448"/>
+        <c:axId val="190532224"/>
+        <c:axId val="190562688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="185126912"/>
+        <c:axId val="190532224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1789,7 +1788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185128448"/>
+        <c:crossAx val="190562688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1797,7 +1796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185128448"/>
+        <c:axId val="190562688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,7 +1806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185126912"/>
+        <c:crossAx val="190532224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3609,147 +3608,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Lasso_Weather_Output"/>
-      <sheetName val="UK FY16-FY17 WATERFALL"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="53">
-          <cell r="C53" t="str">
-            <v>Base Sales</v>
-          </cell>
-          <cell r="E53">
-            <v>103.14430177588201</v>
-          </cell>
-          <cell r="F53">
-            <v>416.60211018882489</v>
-          </cell>
-          <cell r="G53">
-            <v>27.476676368069263</v>
-          </cell>
-          <cell r="H53">
-            <v>4.2839569856184996</v>
-          </cell>
-          <cell r="K53" t="str">
-            <v>Base ($103, 7.5%)</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54" t="str">
-            <v>Holiday/Seasonality</v>
-          </cell>
-          <cell r="E54">
-            <v>551.5070453183946</v>
-          </cell>
-          <cell r="F54">
-            <v>705.30248196928824</v>
-          </cell>
-          <cell r="G54">
-            <v>103.2658116894884</v>
-          </cell>
-          <cell r="K54" t="str">
-            <v>Day of the Week ($417, 30.3%)</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55" t="str">
-            <v>Clearance</v>
-          </cell>
-          <cell r="E55">
-            <v>1360.0753389771712</v>
-          </cell>
-          <cell r="F55">
-            <v>58.34015727655833</v>
-          </cell>
-          <cell r="K55" t="str">
-            <v>Labor ($27, 2.%)</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56" t="str">
-            <v>B3G3</v>
-          </cell>
-          <cell r="E56">
-            <v>1418.4154962537295</v>
-          </cell>
-          <cell r="F56">
-            <v>51.686724529761726</v>
-          </cell>
-          <cell r="K56" t="str">
-            <v>Operating Hours ($4, .3%)</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57" t="str">
-            <v>Weather</v>
-          </cell>
-          <cell r="E57">
-            <v>1463.4956634196262</v>
-          </cell>
-          <cell r="F57">
-            <v>6.6065573638650665</v>
-          </cell>
-          <cell r="K57" t="str">
-            <v>Seasonality ($705, 51.2%)</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58" t="str">
-            <v>Other Promos</v>
-          </cell>
-          <cell r="E58">
-            <v>1377.1364999999998</v>
-          </cell>
-          <cell r="F58">
-            <v>86.35916341962637</v>
-          </cell>
-          <cell r="K58" t="str">
-            <v>Holiday ($103, 7.5%)</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59" t="str">
-            <v>Avg. Store Daily Sales</v>
-          </cell>
-          <cell r="E59">
-            <v>1377.1364999999998</v>
-          </cell>
-          <cell r="K59" t="str">
-            <v>Clearance ($58, 4.2%)</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="K60" t="str">
-            <v>B3G3 ($52, 3.8%)</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="K61" t="str">
-            <v>Weather (-$7, -.5%)</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="K62" t="str">
-            <v>Other Promos (-$86, -4.2%)</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="K63" t="str">
-            <v>$1,377
- Total Avg. Daily Store Sales</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Srini Aripirala" refreshedDate="43160.681765740737" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="117">
   <cacheSource type="worksheet">
@@ -5224,7 +5082,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N6:O18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -5322,7 +5180,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Waterfall Category">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Waterfall Category">
   <location ref="C31:E49" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -5437,7 +5295,7 @@
     <dataField name="% to Total" fld="9" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="1">
@@ -5449,7 +5307,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5755,10 +5613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:O121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10005,12 +9864,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="C6:K63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
